--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga9_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga9_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>1020</v>
+        <v>25500</v>
       </c>
       <c r="B2">
         <v>255</v>
@@ -491,37 +491,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>911</v>
+        <v>25500</v>
       </c>
       <c r="B3">
-        <v>227.75</v>
+        <v>255</v>
       </c>
       <c r="C3">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>255</v>
       </c>
       <c r="E3">
-        <v>2827.583333333333</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>53.17502546622177</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="I3">
         <v>255</v>
       </c>
       <c r="J3">
-        <v>226.75</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L3">
         <v>255</v>
@@ -529,37 +529,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>811</v>
+        <v>25500</v>
       </c>
       <c r="B4">
-        <v>202.75</v>
+        <v>255</v>
       </c>
       <c r="C4">
-        <v>225.5</v>
+        <v>255</v>
       </c>
       <c r="D4">
         <v>255</v>
       </c>
       <c r="E4">
-        <v>5020.25</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>70.85372255569922</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="I4">
         <v>255</v>
       </c>
       <c r="J4">
-        <v>173.25</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>225.5</v>
+        <v>255</v>
       </c>
       <c r="L4">
         <v>255</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>1020</v>
+        <v>25500</v>
       </c>
       <c r="B5">
         <v>255</v>
@@ -600,6 +600,3654 @@
         <v>255</v>
       </c>
       <c r="L5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>25500</v>
+      </c>
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>255</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>255</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>25500</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>255</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+      <c r="K7">
+        <v>255</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>25500</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>255</v>
+      </c>
+      <c r="I8">
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>255</v>
+      </c>
+      <c r="K8">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>25500</v>
+      </c>
+      <c r="B9">
+        <v>255</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>255</v>
+      </c>
+      <c r="I9">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>255</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>25500</v>
+      </c>
+      <c r="B10">
+        <v>255</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>255</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <v>255</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>25500</v>
+      </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>255</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>255</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>25500</v>
+      </c>
+      <c r="B12">
+        <v>255</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>255</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>255</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>25472</v>
+      </c>
+      <c r="B13">
+        <v>254.72</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>1.031919191919193</v>
+      </c>
+      <c r="F13">
+        <v>1.015834234468987</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>249</v>
+      </c>
+      <c r="I13">
+        <v>255</v>
+      </c>
+      <c r="J13">
+        <v>255</v>
+      </c>
+      <c r="K13">
+        <v>255</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>25465</v>
+      </c>
+      <c r="B14">
+        <v>254.65</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>2.169191919191922</v>
+      </c>
+      <c r="F14">
+        <v>1.47281768022791</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>246</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>255</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>25464</v>
+      </c>
+      <c r="B15">
+        <v>254.64</v>
+      </c>
+      <c r="C15">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>1.444848484848485</v>
+      </c>
+      <c r="F15">
+        <v>1.202018504370247</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>249</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+      <c r="J15">
+        <v>255</v>
+      </c>
+      <c r="K15">
+        <v>255</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>25433</v>
+      </c>
+      <c r="B16">
+        <v>254.33</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>7.294040404040405</v>
+      </c>
+      <c r="F16">
+        <v>2.700748119325533</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>238</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+      <c r="J16">
+        <v>255</v>
+      </c>
+      <c r="K16">
+        <v>255</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>25169</v>
+      </c>
+      <c r="B17">
+        <v>251.69</v>
+      </c>
+      <c r="C17">
+        <v>255</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>366.3776767676781</v>
+      </c>
+      <c r="F17">
+        <v>19.14099466505537</v>
+      </c>
+      <c r="G17">
+        <v>141</v>
+      </c>
+      <c r="H17">
+        <v>114</v>
+      </c>
+      <c r="I17">
+        <v>255</v>
+      </c>
+      <c r="J17">
+        <v>255</v>
+      </c>
+      <c r="K17">
+        <v>255</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>25171</v>
+      </c>
+      <c r="B18">
+        <v>251.71</v>
+      </c>
+      <c r="C18">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>348.0665656565648</v>
+      </c>
+      <c r="F18">
+        <v>18.65654216773743</v>
+      </c>
+      <c r="G18">
+        <v>142</v>
+      </c>
+      <c r="H18">
+        <v>113</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>255</v>
+      </c>
+      <c r="K18">
+        <v>255</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>25240</v>
+      </c>
+      <c r="B19">
+        <v>252.4</v>
+      </c>
+      <c r="C19">
+        <v>255</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>217.9797979797974</v>
+      </c>
+      <c r="F19">
+        <v>14.7641389176544</v>
+      </c>
+      <c r="G19">
+        <v>118</v>
+      </c>
+      <c r="H19">
+        <v>137</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>255</v>
+      </c>
+      <c r="K19">
+        <v>255</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>25151</v>
+      </c>
+      <c r="B20">
+        <v>251.51</v>
+      </c>
+      <c r="C20">
+        <v>255</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>334.1110101010097</v>
+      </c>
+      <c r="F20">
+        <v>18.27870373141952</v>
+      </c>
+      <c r="G20">
+        <v>127</v>
+      </c>
+      <c r="H20">
+        <v>128</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>255</v>
+      </c>
+      <c r="K20">
+        <v>255</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>25214</v>
+      </c>
+      <c r="B21">
+        <v>252.14</v>
+      </c>
+      <c r="C21">
+        <v>255</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>291.1519191919189</v>
+      </c>
+      <c r="F21">
+        <v>17.06317435859808</v>
+      </c>
+      <c r="G21">
+        <v>147</v>
+      </c>
+      <c r="H21">
+        <v>108</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>255</v>
+      </c>
+      <c r="K21">
+        <v>255</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>25264</v>
+      </c>
+      <c r="B22">
+        <v>252.64</v>
+      </c>
+      <c r="C22">
+        <v>255</v>
+      </c>
+      <c r="D22">
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <v>267.9903030303026</v>
+      </c>
+      <c r="F22">
+        <v>16.37040937271584</v>
+      </c>
+      <c r="G22">
+        <v>161</v>
+      </c>
+      <c r="H22">
+        <v>94</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>255</v>
+      </c>
+      <c r="K22">
+        <v>255</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>25249</v>
+      </c>
+      <c r="B23">
+        <v>252.49</v>
+      </c>
+      <c r="C23">
+        <v>255</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>165.7473737373739</v>
+      </c>
+      <c r="F23">
+        <v>12.87429119359096</v>
+      </c>
+      <c r="G23">
+        <v>122</v>
+      </c>
+      <c r="H23">
+        <v>133</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>254</v>
+      </c>
+      <c r="K23">
+        <v>255</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>25136</v>
+      </c>
+      <c r="B24">
+        <v>251.36</v>
+      </c>
+      <c r="C24">
+        <v>255</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>113.081212121212</v>
+      </c>
+      <c r="F24">
+        <v>10.63396502350896</v>
+      </c>
+      <c r="G24">
+        <v>73</v>
+      </c>
+      <c r="H24">
+        <v>182</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>252</v>
+      </c>
+      <c r="K24">
+        <v>255</v>
+      </c>
+      <c r="L24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>25133</v>
+      </c>
+      <c r="B25">
+        <v>251.33</v>
+      </c>
+      <c r="C25">
+        <v>255</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
+      </c>
+      <c r="E25">
+        <v>141.0314141414141</v>
+      </c>
+      <c r="F25">
+        <v>11.87566478734619</v>
+      </c>
+      <c r="G25">
+        <v>111</v>
+      </c>
+      <c r="H25">
+        <v>144</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>251</v>
+      </c>
+      <c r="K25">
+        <v>255</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>25165</v>
+      </c>
+      <c r="B26">
+        <v>251.65</v>
+      </c>
+      <c r="C26">
+        <v>255</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>115.340909090909</v>
+      </c>
+      <c r="F26">
+        <v>10.73968850064605</v>
+      </c>
+      <c r="G26">
+        <v>99</v>
+      </c>
+      <c r="H26">
+        <v>156</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>251</v>
+      </c>
+      <c r="K26">
+        <v>255</v>
+      </c>
+      <c r="L26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>25047</v>
+      </c>
+      <c r="B27">
+        <v>250.47</v>
+      </c>
+      <c r="C27">
+        <v>255</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>104.0899999999999</v>
+      </c>
+      <c r="F27">
+        <v>10.20245068598716</v>
+      </c>
+      <c r="G27">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>180</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>250.75</v>
+      </c>
+      <c r="K27">
+        <v>255</v>
+      </c>
+      <c r="L27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>24828</v>
+      </c>
+      <c r="B28">
+        <v>248.28</v>
+      </c>
+      <c r="C28">
+        <v>255</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>192.5672727272728</v>
+      </c>
+      <c r="F28">
+        <v>13.87686105454951</v>
+      </c>
+      <c r="G28">
+        <v>62</v>
+      </c>
+      <c r="H28">
+        <v>193</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>248</v>
+      </c>
+      <c r="K28">
+        <v>255</v>
+      </c>
+      <c r="L28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>24585</v>
+      </c>
+      <c r="B29">
+        <v>245.85</v>
+      </c>
+      <c r="C29">
+        <v>254</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>445.1994949494959</v>
+      </c>
+      <c r="F29">
+        <v>21.09975106368546</v>
+      </c>
+      <c r="G29">
+        <v>116</v>
+      </c>
+      <c r="H29">
+        <v>139</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>248</v>
+      </c>
+      <c r="K29">
+        <v>254</v>
+      </c>
+      <c r="L29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>24655</v>
+      </c>
+      <c r="B30">
+        <v>246.55</v>
+      </c>
+      <c r="C30">
+        <v>254</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>253.5429292929294</v>
+      </c>
+      <c r="F30">
+        <v>15.92303141028521</v>
+      </c>
+      <c r="G30">
+        <v>83</v>
+      </c>
+      <c r="H30">
+        <v>172</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>244</v>
+      </c>
+      <c r="K30">
+        <v>254</v>
+      </c>
+      <c r="L30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>24870</v>
+      </c>
+      <c r="B31">
+        <v>248.7</v>
+      </c>
+      <c r="C31">
+        <v>255</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>377.4040404040408</v>
+      </c>
+      <c r="F31">
+        <v>19.42688962248051</v>
+      </c>
+      <c r="G31">
+        <v>153</v>
+      </c>
+      <c r="H31">
+        <v>102</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>249.75</v>
+      </c>
+      <c r="K31">
+        <v>255</v>
+      </c>
+      <c r="L31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>24518</v>
+      </c>
+      <c r="B32">
+        <v>245.18</v>
+      </c>
+      <c r="C32">
+        <v>255</v>
+      </c>
+      <c r="D32">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>859.7248484848501</v>
+      </c>
+      <c r="F32">
+        <v>29.32106492753717</v>
+      </c>
+      <c r="G32">
+        <v>208</v>
+      </c>
+      <c r="H32">
+        <v>47</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>249.75</v>
+      </c>
+      <c r="K32">
+        <v>255</v>
+      </c>
+      <c r="L32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>24000</v>
+      </c>
+      <c r="B33">
+        <v>240</v>
+      </c>
+      <c r="C33">
+        <v>254</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33">
+        <v>1406.848484848485</v>
+      </c>
+      <c r="F33">
+        <v>37.50797894913141</v>
+      </c>
+      <c r="G33">
+        <v>203</v>
+      </c>
+      <c r="H33">
+        <v>52</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>244.75</v>
+      </c>
+      <c r="K33">
+        <v>254</v>
+      </c>
+      <c r="L33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>23745</v>
+      </c>
+      <c r="B34">
+        <v>237.45</v>
+      </c>
+      <c r="C34">
+        <v>254</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>2094.53282828283</v>
+      </c>
+      <c r="F34">
+        <v>45.76606634049762</v>
+      </c>
+      <c r="G34">
+        <v>213</v>
+      </c>
+      <c r="H34">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>249</v>
+      </c>
+      <c r="K34">
+        <v>254</v>
+      </c>
+      <c r="L34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>23424</v>
+      </c>
+      <c r="B35">
+        <v>234.24</v>
+      </c>
+      <c r="C35">
+        <v>255</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>2683.275151515153</v>
+      </c>
+      <c r="F35">
+        <v>51.80033929922808</v>
+      </c>
+      <c r="G35">
+        <v>222</v>
+      </c>
+      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>248</v>
+      </c>
+      <c r="K35">
+        <v>255</v>
+      </c>
+      <c r="L35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>23080</v>
+      </c>
+      <c r="B36">
+        <v>230.8</v>
+      </c>
+      <c r="C36">
+        <v>254</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>3306.14141414142</v>
+      </c>
+      <c r="F36">
+        <v>57.49905576738995</v>
+      </c>
+      <c r="G36">
+        <v>221</v>
+      </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>246.75</v>
+      </c>
+      <c r="K36">
+        <v>254</v>
+      </c>
+      <c r="L36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>22726</v>
+      </c>
+      <c r="B37">
+        <v>227.26</v>
+      </c>
+      <c r="C37">
+        <v>254</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>3973.648888888889</v>
+      </c>
+      <c r="F37">
+        <v>63.03688514583259</v>
+      </c>
+      <c r="G37">
+        <v>228</v>
+      </c>
+      <c r="H37">
+        <v>27</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>244.75</v>
+      </c>
+      <c r="K37">
+        <v>254</v>
+      </c>
+      <c r="L37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>22448</v>
+      </c>
+      <c r="B38">
+        <v>224.48</v>
+      </c>
+      <c r="C38">
+        <v>253.5</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>4537.625858585855</v>
+      </c>
+      <c r="F38">
+        <v>67.36190213010508</v>
+      </c>
+      <c r="G38">
+        <v>237</v>
+      </c>
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>244</v>
+      </c>
+      <c r="K38">
+        <v>253.5</v>
+      </c>
+      <c r="L38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>22159</v>
+      </c>
+      <c r="B39">
+        <v>221.59</v>
+      </c>
+      <c r="C39">
+        <v>253</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>4693.759494949498</v>
+      </c>
+      <c r="F39">
+        <v>68.51101732531417</v>
+      </c>
+      <c r="G39">
+        <v>229</v>
+      </c>
+      <c r="H39">
+        <v>26</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>240.75</v>
+      </c>
+      <c r="K39">
+        <v>253</v>
+      </c>
+      <c r="L39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>21846</v>
+      </c>
+      <c r="B40">
+        <v>218.46</v>
+      </c>
+      <c r="C40">
+        <v>253</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>5275.523636363639</v>
+      </c>
+      <c r="F40">
+        <v>72.6328000036047</v>
+      </c>
+      <c r="G40">
+        <v>233</v>
+      </c>
+      <c r="H40">
+        <v>22</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>238</v>
+      </c>
+      <c r="K40">
+        <v>253</v>
+      </c>
+      <c r="L40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>21591</v>
+      </c>
+      <c r="B41">
+        <v>215.91</v>
+      </c>
+      <c r="C41">
+        <v>253</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>5466.22414141414</v>
+      </c>
+      <c r="F41">
+        <v>73.93391739529389</v>
+      </c>
+      <c r="G41">
+        <v>233</v>
+      </c>
+      <c r="H41">
+        <v>22</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>232.75</v>
+      </c>
+      <c r="K41">
+        <v>253</v>
+      </c>
+      <c r="L41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>21360</v>
+      </c>
+      <c r="B42">
+        <v>213.6</v>
+      </c>
+      <c r="C42">
+        <v>252</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>5753.515151515145</v>
+      </c>
+      <c r="F42">
+        <v>75.85192912190925</v>
+      </c>
+      <c r="G42">
+        <v>234</v>
+      </c>
+      <c r="H42">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>230</v>
+      </c>
+      <c r="K42">
+        <v>252</v>
+      </c>
+      <c r="L42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>21112</v>
+      </c>
+      <c r="B43">
+        <v>211.12</v>
+      </c>
+      <c r="C43">
+        <v>253.5</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>5933.500606060617</v>
+      </c>
+      <c r="F43">
+        <v>77.02921917078361</v>
+      </c>
+      <c r="G43">
+        <v>234</v>
+      </c>
+      <c r="H43">
+        <v>21</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>221</v>
+      </c>
+      <c r="K43">
+        <v>253.5</v>
+      </c>
+      <c r="L43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>20857</v>
+      </c>
+      <c r="B44">
+        <v>208.57</v>
+      </c>
+      <c r="C44">
+        <v>253</v>
+      </c>
+      <c r="D44">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>6112.894040404049</v>
+      </c>
+      <c r="F44">
+        <v>78.18499881949253</v>
+      </c>
+      <c r="G44">
+        <v>233</v>
+      </c>
+      <c r="H44">
+        <v>22</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>210.5</v>
+      </c>
+      <c r="K44">
+        <v>253</v>
+      </c>
+      <c r="L44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>20558</v>
+      </c>
+      <c r="B45">
+        <v>205.58</v>
+      </c>
+      <c r="C45">
+        <v>252.5</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>6351.155151515159</v>
+      </c>
+      <c r="F45">
+        <v>79.69413498818567</v>
+      </c>
+      <c r="G45">
+        <v>236</v>
+      </c>
+      <c r="H45">
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>191.5</v>
+      </c>
+      <c r="K45">
+        <v>252.5</v>
+      </c>
+      <c r="L45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>20456</v>
+      </c>
+      <c r="B46">
+        <v>204.56</v>
+      </c>
+      <c r="C46">
+        <v>252</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>6377.865050505046</v>
+      </c>
+      <c r="F46">
+        <v>79.86153674019207</v>
+      </c>
+      <c r="G46">
+        <v>236</v>
+      </c>
+      <c r="H46">
+        <v>19</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>180.5</v>
+      </c>
+      <c r="K46">
+        <v>252</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>20289</v>
+      </c>
+      <c r="B47">
+        <v>202.89</v>
+      </c>
+      <c r="C47">
+        <v>251</v>
+      </c>
+      <c r="D47">
+        <v>255</v>
+      </c>
+      <c r="E47">
+        <v>6404.523131313129</v>
+      </c>
+      <c r="F47">
+        <v>80.02826457766736</v>
+      </c>
+      <c r="G47">
+        <v>234</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>176</v>
+      </c>
+      <c r="K47">
+        <v>251</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>20103</v>
+      </c>
+      <c r="B48">
+        <v>201.03</v>
+      </c>
+      <c r="C48">
+        <v>249.5</v>
+      </c>
+      <c r="D48">
+        <v>255</v>
+      </c>
+      <c r="E48">
+        <v>6417.403131313132</v>
+      </c>
+      <c r="F48">
+        <v>80.10869572844842</v>
+      </c>
+      <c r="G48">
+        <v>232</v>
+      </c>
+      <c r="H48">
+        <v>23</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>170</v>
+      </c>
+      <c r="K48">
+        <v>249.5</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>19973</v>
+      </c>
+      <c r="B49">
+        <v>199.73</v>
+      </c>
+      <c r="C49">
+        <v>251.5</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+      <c r="E49">
+        <v>6488.300101010093</v>
+      </c>
+      <c r="F49">
+        <v>80.54998510868946</v>
+      </c>
+      <c r="G49">
+        <v>230</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>164.75</v>
+      </c>
+      <c r="K49">
+        <v>251.5</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>19835</v>
+      </c>
+      <c r="B50">
+        <v>198.35</v>
+      </c>
+      <c r="C50">
+        <v>249.5</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+      <c r="E50">
+        <v>6509.118686868694</v>
+      </c>
+      <c r="F50">
+        <v>80.67910935842495</v>
+      </c>
+      <c r="G50">
+        <v>229</v>
+      </c>
+      <c r="H50">
+        <v>26</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>164.75</v>
+      </c>
+      <c r="K50">
+        <v>249.5</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>19772</v>
+      </c>
+      <c r="B51">
+        <v>197.72</v>
+      </c>
+      <c r="C51">
+        <v>250.5</v>
+      </c>
+      <c r="D51">
+        <v>255</v>
+      </c>
+      <c r="E51">
+        <v>6496.021818181826</v>
+      </c>
+      <c r="F51">
+        <v>80.59790207059875</v>
+      </c>
+      <c r="G51">
+        <v>220</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>157</v>
+      </c>
+      <c r="K51">
+        <v>250.5</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>19716</v>
+      </c>
+      <c r="B52">
+        <v>197.16</v>
+      </c>
+      <c r="C52">
+        <v>249.5</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>6232.277171717171</v>
+      </c>
+      <c r="F52">
+        <v>78.94477292206983</v>
+      </c>
+      <c r="G52">
+        <v>216</v>
+      </c>
+      <c r="H52">
+        <v>39</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>153.75</v>
+      </c>
+      <c r="K52">
+        <v>249.5</v>
+      </c>
+      <c r="L52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>19772</v>
+      </c>
+      <c r="B53">
+        <v>197.72</v>
+      </c>
+      <c r="C53">
+        <v>250.5</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>5935.031919191928</v>
+      </c>
+      <c r="F53">
+        <v>77.03915834945192</v>
+      </c>
+      <c r="G53">
+        <v>206</v>
+      </c>
+      <c r="H53">
+        <v>49</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>147.5</v>
+      </c>
+      <c r="K53">
+        <v>250.5</v>
+      </c>
+      <c r="L53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>19860</v>
+      </c>
+      <c r="B54">
+        <v>198.6</v>
+      </c>
+      <c r="C54">
+        <v>250</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>5688.727272727268</v>
+      </c>
+      <c r="F54">
+        <v>75.42365194504485</v>
+      </c>
+      <c r="G54">
+        <v>197</v>
+      </c>
+      <c r="H54">
+        <v>58</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>141.75</v>
+      </c>
+      <c r="K54">
+        <v>250</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>19937</v>
+      </c>
+      <c r="B55">
+        <v>199.37</v>
+      </c>
+      <c r="C55">
+        <v>247.5</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="E55">
+        <v>5431.952626262623</v>
+      </c>
+      <c r="F55">
+        <v>73.70178170344747</v>
+      </c>
+      <c r="G55">
+        <v>193</v>
+      </c>
+      <c r="H55">
+        <v>62</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>138.25</v>
+      </c>
+      <c r="K55">
+        <v>247.5</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>20152</v>
+      </c>
+      <c r="B56">
+        <v>201.52</v>
+      </c>
+      <c r="C56">
+        <v>252.5</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56">
+        <v>5146.534949494951</v>
+      </c>
+      <c r="F56">
+        <v>71.73935425897665</v>
+      </c>
+      <c r="G56">
+        <v>193</v>
+      </c>
+      <c r="H56">
+        <v>62</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>148.5</v>
+      </c>
+      <c r="K56">
+        <v>252.5</v>
+      </c>
+      <c r="L56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>20159</v>
+      </c>
+      <c r="B57">
+        <v>201.59</v>
+      </c>
+      <c r="C57">
+        <v>250.5</v>
+      </c>
+      <c r="D57">
+        <v>255</v>
+      </c>
+      <c r="E57">
+        <v>5031.173636363632</v>
+      </c>
+      <c r="F57">
+        <v>70.93076650060699</v>
+      </c>
+      <c r="G57">
+        <v>190</v>
+      </c>
+      <c r="H57">
+        <v>65</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>143.75</v>
+      </c>
+      <c r="K57">
+        <v>250.5</v>
+      </c>
+      <c r="L57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>20153</v>
+      </c>
+      <c r="B58">
+        <v>201.53</v>
+      </c>
+      <c r="C58">
+        <v>249.5</v>
+      </c>
+      <c r="D58">
+        <v>255</v>
+      </c>
+      <c r="E58">
+        <v>4911.221313131319</v>
+      </c>
+      <c r="F58">
+        <v>70.08010640068491</v>
+      </c>
+      <c r="G58">
+        <v>185</v>
+      </c>
+      <c r="H58">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>139.75</v>
+      </c>
+      <c r="K58">
+        <v>249.5</v>
+      </c>
+      <c r="L58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>20234</v>
+      </c>
+      <c r="B59">
+        <v>202.34</v>
+      </c>
+      <c r="C59">
+        <v>250</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>4801.479191919189</v>
+      </c>
+      <c r="F59">
+        <v>69.29270662861417</v>
+      </c>
+      <c r="G59">
+        <v>182</v>
+      </c>
+      <c r="H59">
+        <v>73</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>139.75</v>
+      </c>
+      <c r="K59">
+        <v>250</v>
+      </c>
+      <c r="L59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>20275</v>
+      </c>
+      <c r="B60">
+        <v>202.75</v>
+      </c>
+      <c r="C60">
+        <v>250</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="E60">
+        <v>4675.704545454545</v>
+      </c>
+      <c r="F60">
+        <v>68.37912360841243</v>
+      </c>
+      <c r="G60">
+        <v>182</v>
+      </c>
+      <c r="H60">
+        <v>73</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>140.5</v>
+      </c>
+      <c r="K60">
+        <v>250</v>
+      </c>
+      <c r="L60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>20296</v>
+      </c>
+      <c r="B61">
+        <v>202.96</v>
+      </c>
+      <c r="C61">
+        <v>251</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>4526.644848484848</v>
+      </c>
+      <c r="F61">
+        <v>67.28034518702211</v>
+      </c>
+      <c r="G61">
+        <v>185</v>
+      </c>
+      <c r="H61">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>136.75</v>
+      </c>
+      <c r="K61">
+        <v>251</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>20365</v>
+      </c>
+      <c r="B62">
+        <v>203.65</v>
+      </c>
+      <c r="C62">
+        <v>252.5</v>
+      </c>
+      <c r="D62">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>4443.664141414144</v>
+      </c>
+      <c r="F62">
+        <v>66.66081413704865</v>
+      </c>
+      <c r="G62">
+        <v>191</v>
+      </c>
+      <c r="H62">
+        <v>64</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>139</v>
+      </c>
+      <c r="K62">
+        <v>252.5</v>
+      </c>
+      <c r="L62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>20457</v>
+      </c>
+      <c r="B63">
+        <v>204.57</v>
+      </c>
+      <c r="C63">
+        <v>252.5</v>
+      </c>
+      <c r="D63">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>4221.136464646463</v>
+      </c>
+      <c r="F63">
+        <v>64.97027369995037</v>
+      </c>
+      <c r="G63">
+        <v>188</v>
+      </c>
+      <c r="H63">
+        <v>67</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>145</v>
+      </c>
+      <c r="K63">
+        <v>252.5</v>
+      </c>
+      <c r="L63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>20599</v>
+      </c>
+      <c r="B64">
+        <v>205.99</v>
+      </c>
+      <c r="C64">
+        <v>250.5</v>
+      </c>
+      <c r="D64">
+        <v>255</v>
+      </c>
+      <c r="E64">
+        <v>4074.676666666664</v>
+      </c>
+      <c r="F64">
+        <v>63.83319408165836</v>
+      </c>
+      <c r="G64">
+        <v>197</v>
+      </c>
+      <c r="H64">
+        <v>58</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>153</v>
+      </c>
+      <c r="K64">
+        <v>250.5</v>
+      </c>
+      <c r="L64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>20703</v>
+      </c>
+      <c r="B65">
+        <v>207.03</v>
+      </c>
+      <c r="C65">
+        <v>251</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>3967.84757575757</v>
+      </c>
+      <c r="F65">
+        <v>62.99085311184133</v>
+      </c>
+      <c r="G65">
+        <v>203</v>
+      </c>
+      <c r="H65">
+        <v>52</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>154.5</v>
+      </c>
+      <c r="K65">
+        <v>251</v>
+      </c>
+      <c r="L65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>20796</v>
+      </c>
+      <c r="B66">
+        <v>207.96</v>
+      </c>
+      <c r="C66">
+        <v>252</v>
+      </c>
+      <c r="D66">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>3867.19030303031</v>
+      </c>
+      <c r="F66">
+        <v>62.18673735637134</v>
+      </c>
+      <c r="G66">
+        <v>208</v>
+      </c>
+      <c r="H66">
+        <v>47</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>154.75</v>
+      </c>
+      <c r="K66">
+        <v>252</v>
+      </c>
+      <c r="L66">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>20878</v>
+      </c>
+      <c r="B67">
+        <v>208.78</v>
+      </c>
+      <c r="C67">
+        <v>252.5</v>
+      </c>
+      <c r="D67">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>3949.870303030309</v>
+      </c>
+      <c r="F67">
+        <v>62.84799362772299</v>
+      </c>
+      <c r="G67">
+        <v>211</v>
+      </c>
+      <c r="H67">
+        <v>44</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>160.75</v>
+      </c>
+      <c r="K67">
+        <v>252.5</v>
+      </c>
+      <c r="L67">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>20998</v>
+      </c>
+      <c r="B68">
+        <v>209.98</v>
+      </c>
+      <c r="C68">
+        <v>254</v>
+      </c>
+      <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>3843.938989898993</v>
+      </c>
+      <c r="F68">
+        <v>61.99950798110411</v>
+      </c>
+      <c r="G68">
+        <v>222</v>
+      </c>
+      <c r="H68">
+        <v>33</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>164</v>
+      </c>
+      <c r="K68">
+        <v>254</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>21113</v>
+      </c>
+      <c r="B69">
+        <v>211.13</v>
+      </c>
+      <c r="C69">
+        <v>254</v>
+      </c>
+      <c r="D69">
+        <v>255</v>
+      </c>
+      <c r="E69">
+        <v>3817.993030303029</v>
+      </c>
+      <c r="F69">
+        <v>61.78991042478561</v>
+      </c>
+      <c r="G69">
+        <v>219</v>
+      </c>
+      <c r="H69">
+        <v>36</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>164</v>
+      </c>
+      <c r="K69">
+        <v>254</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>21194</v>
+      </c>
+      <c r="B70">
+        <v>211.94</v>
+      </c>
+      <c r="C70">
+        <v>255</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>3947.471111111118</v>
+      </c>
+      <c r="F70">
+        <v>62.82890346895383</v>
+      </c>
+      <c r="G70">
+        <v>221</v>
+      </c>
+      <c r="H70">
+        <v>34</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>167.75</v>
+      </c>
+      <c r="K70">
+        <v>255</v>
+      </c>
+      <c r="L70">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>21291</v>
+      </c>
+      <c r="B71">
+        <v>212.91</v>
+      </c>
+      <c r="C71">
+        <v>255</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>4066.466565656558</v>
+      </c>
+      <c r="F71">
+        <v>63.76885262929354</v>
+      </c>
+      <c r="G71">
+        <v>234</v>
+      </c>
+      <c r="H71">
+        <v>21</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>172.75</v>
+      </c>
+      <c r="K71">
+        <v>255</v>
+      </c>
+      <c r="L71">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>21457</v>
+      </c>
+      <c r="B72">
+        <v>214.57</v>
+      </c>
+      <c r="C72">
+        <v>255</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>4051.863737373742</v>
+      </c>
+      <c r="F72">
+        <v>63.65425152630217</v>
+      </c>
+      <c r="G72">
+        <v>236</v>
+      </c>
+      <c r="H72">
+        <v>19</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>176</v>
+      </c>
+      <c r="K72">
+        <v>255</v>
+      </c>
+      <c r="L72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>21549</v>
+      </c>
+      <c r="B73">
+        <v>215.49</v>
+      </c>
+      <c r="C73">
+        <v>255</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>4045.686767676764</v>
+      </c>
+      <c r="F73">
+        <v>63.60571332574428</v>
+      </c>
+      <c r="G73">
+        <v>230</v>
+      </c>
+      <c r="H73">
+        <v>25</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>178</v>
+      </c>
+      <c r="K73">
+        <v>255</v>
+      </c>
+      <c r="L73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>21566</v>
+      </c>
+      <c r="B74">
+        <v>215.66</v>
+      </c>
+      <c r="C74">
+        <v>255</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>4310.933737373732</v>
+      </c>
+      <c r="F74">
+        <v>65.65770128000014</v>
+      </c>
+      <c r="G74">
+        <v>244</v>
+      </c>
+      <c r="H74">
+        <v>11</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>187.75</v>
+      </c>
+      <c r="K74">
+        <v>255</v>
+      </c>
+      <c r="L74">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>21553</v>
+      </c>
+      <c r="B75">
+        <v>215.53</v>
+      </c>
+      <c r="C75">
+        <v>255</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+      <c r="E75">
+        <v>4616.595050505046</v>
+      </c>
+      <c r="F75">
+        <v>67.94553002593361</v>
+      </c>
+      <c r="G75">
+        <v>241</v>
+      </c>
+      <c r="H75">
+        <v>14</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>197</v>
+      </c>
+      <c r="K75">
+        <v>255</v>
+      </c>
+      <c r="L75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>21548</v>
+      </c>
+      <c r="B76">
+        <v>215.48</v>
+      </c>
+      <c r="C76">
+        <v>255</v>
+      </c>
+      <c r="D76">
+        <v>255</v>
+      </c>
+      <c r="E76">
+        <v>4887.605656565649</v>
+      </c>
+      <c r="F76">
+        <v>69.91141292067876</v>
+      </c>
+      <c r="G76">
+        <v>247</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>207.5</v>
+      </c>
+      <c r="K76">
+        <v>255</v>
+      </c>
+      <c r="L76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>21704</v>
+      </c>
+      <c r="B77">
+        <v>217.04</v>
+      </c>
+      <c r="C77">
+        <v>255</v>
+      </c>
+      <c r="D77">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>4864.766060606055</v>
+      </c>
+      <c r="F77">
+        <v>69.74787495405187</v>
+      </c>
+      <c r="G77">
+        <v>243</v>
+      </c>
+      <c r="H77">
+        <v>12</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>225.75</v>
+      </c>
+      <c r="K77">
+        <v>255</v>
+      </c>
+      <c r="L77">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>21491</v>
+      </c>
+      <c r="B78">
+        <v>214.91</v>
+      </c>
+      <c r="C78">
+        <v>255</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>5696.224141414153</v>
+      </c>
+      <c r="F78">
+        <v>75.47333397574373</v>
+      </c>
+      <c r="G78">
+        <v>243</v>
+      </c>
+      <c r="H78">
+        <v>12</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>237.5</v>
+      </c>
+      <c r="K78">
+        <v>255</v>
+      </c>
+      <c r="L78">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>22354</v>
+      </c>
+      <c r="B79">
+        <v>223.54</v>
+      </c>
+      <c r="C79">
+        <v>255</v>
+      </c>
+      <c r="D79">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>4341.362020202021</v>
+      </c>
+      <c r="F79">
+        <v>65.88901289442741</v>
+      </c>
+      <c r="G79">
+        <v>232</v>
+      </c>
+      <c r="H79">
+        <v>23</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>248</v>
+      </c>
+      <c r="K79">
+        <v>255</v>
+      </c>
+      <c r="L79">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>25011</v>
+      </c>
+      <c r="B80">
+        <v>250.11</v>
+      </c>
+      <c r="C80">
+        <v>255</v>
+      </c>
+      <c r="D80">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>191.1089898989904</v>
+      </c>
+      <c r="F80">
+        <v>13.82421751488996</v>
+      </c>
+      <c r="G80">
+        <v>74</v>
+      </c>
+      <c r="H80">
+        <v>181</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>252.75</v>
+      </c>
+      <c r="K80">
+        <v>255</v>
+      </c>
+      <c r="L80">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>25398</v>
+      </c>
+      <c r="B81">
+        <v>253.98</v>
+      </c>
+      <c r="C81">
+        <v>255</v>
+      </c>
+      <c r="D81">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>4.201616161616169</v>
+      </c>
+      <c r="F81">
+        <v>2.049784418327003</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>245</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>254</v>
+      </c>
+      <c r="K81">
+        <v>255</v>
+      </c>
+      <c r="L81">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>25408</v>
+      </c>
+      <c r="B82">
+        <v>254.08</v>
+      </c>
+      <c r="C82">
+        <v>255</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <v>3.730909090909085</v>
+      </c>
+      <c r="F82">
+        <v>1.931556131959174</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>246</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>254.75</v>
+      </c>
+      <c r="K82">
+        <v>255</v>
+      </c>
+      <c r="L82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>25500</v>
+      </c>
+      <c r="B83">
+        <v>255</v>
+      </c>
+      <c r="C83">
+        <v>255</v>
+      </c>
+      <c r="D83">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>255</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>255</v>
+      </c>
+      <c r="K83">
+        <v>255</v>
+      </c>
+      <c r="L83">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>25500</v>
+      </c>
+      <c r="B84">
+        <v>255</v>
+      </c>
+      <c r="C84">
+        <v>255</v>
+      </c>
+      <c r="D84">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>255</v>
+      </c>
+      <c r="I84">
+        <v>255</v>
+      </c>
+      <c r="J84">
+        <v>255</v>
+      </c>
+      <c r="K84">
+        <v>255</v>
+      </c>
+      <c r="L84">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>25500</v>
+      </c>
+      <c r="B85">
+        <v>255</v>
+      </c>
+      <c r="C85">
+        <v>255</v>
+      </c>
+      <c r="D85">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>255</v>
+      </c>
+      <c r="I85">
+        <v>255</v>
+      </c>
+      <c r="J85">
+        <v>255</v>
+      </c>
+      <c r="K85">
+        <v>255</v>
+      </c>
+      <c r="L85">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>25500</v>
+      </c>
+      <c r="B86">
+        <v>255</v>
+      </c>
+      <c r="C86">
+        <v>255</v>
+      </c>
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>255</v>
+      </c>
+      <c r="I86">
+        <v>255</v>
+      </c>
+      <c r="J86">
+        <v>255</v>
+      </c>
+      <c r="K86">
+        <v>255</v>
+      </c>
+      <c r="L86">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>25500</v>
+      </c>
+      <c r="B87">
+        <v>255</v>
+      </c>
+      <c r="C87">
+        <v>255</v>
+      </c>
+      <c r="D87">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>255</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>255</v>
+      </c>
+      <c r="K87">
+        <v>255</v>
+      </c>
+      <c r="L87">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>25500</v>
+      </c>
+      <c r="B88">
+        <v>255</v>
+      </c>
+      <c r="C88">
+        <v>255</v>
+      </c>
+      <c r="D88">
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>255</v>
+      </c>
+      <c r="I88">
+        <v>255</v>
+      </c>
+      <c r="J88">
+        <v>255</v>
+      </c>
+      <c r="K88">
+        <v>255</v>
+      </c>
+      <c r="L88">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>25500</v>
+      </c>
+      <c r="B89">
+        <v>255</v>
+      </c>
+      <c r="C89">
+        <v>255</v>
+      </c>
+      <c r="D89">
+        <v>255</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>255</v>
+      </c>
+      <c r="I89">
+        <v>255</v>
+      </c>
+      <c r="J89">
+        <v>255</v>
+      </c>
+      <c r="K89">
+        <v>255</v>
+      </c>
+      <c r="L89">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>25500</v>
+      </c>
+      <c r="B90">
+        <v>255</v>
+      </c>
+      <c r="C90">
+        <v>255</v>
+      </c>
+      <c r="D90">
+        <v>255</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>255</v>
+      </c>
+      <c r="I90">
+        <v>255</v>
+      </c>
+      <c r="J90">
+        <v>255</v>
+      </c>
+      <c r="K90">
+        <v>255</v>
+      </c>
+      <c r="L90">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>25500</v>
+      </c>
+      <c r="B91">
+        <v>255</v>
+      </c>
+      <c r="C91">
+        <v>255</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>255</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>255</v>
+      </c>
+      <c r="K91">
+        <v>255</v>
+      </c>
+      <c r="L91">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>25500</v>
+      </c>
+      <c r="B92">
+        <v>255</v>
+      </c>
+      <c r="C92">
+        <v>255</v>
+      </c>
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>255</v>
+      </c>
+      <c r="I92">
+        <v>255</v>
+      </c>
+      <c r="J92">
+        <v>255</v>
+      </c>
+      <c r="K92">
+        <v>255</v>
+      </c>
+      <c r="L92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>25500</v>
+      </c>
+      <c r="B93">
+        <v>255</v>
+      </c>
+      <c r="C93">
+        <v>255</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>255</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>255</v>
+      </c>
+      <c r="K93">
+        <v>255</v>
+      </c>
+      <c r="L93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>25500</v>
+      </c>
+      <c r="B94">
+        <v>255</v>
+      </c>
+      <c r="C94">
+        <v>255</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>255</v>
+      </c>
+      <c r="I94">
+        <v>255</v>
+      </c>
+      <c r="J94">
+        <v>255</v>
+      </c>
+      <c r="K94">
+        <v>255</v>
+      </c>
+      <c r="L94">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>25500</v>
+      </c>
+      <c r="B95">
+        <v>255</v>
+      </c>
+      <c r="C95">
+        <v>255</v>
+      </c>
+      <c r="D95">
+        <v>255</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>255</v>
+      </c>
+      <c r="I95">
+        <v>255</v>
+      </c>
+      <c r="J95">
+        <v>255</v>
+      </c>
+      <c r="K95">
+        <v>255</v>
+      </c>
+      <c r="L95">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>25500</v>
+      </c>
+      <c r="B96">
+        <v>255</v>
+      </c>
+      <c r="C96">
+        <v>255</v>
+      </c>
+      <c r="D96">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>255</v>
+      </c>
+      <c r="I96">
+        <v>255</v>
+      </c>
+      <c r="J96">
+        <v>255</v>
+      </c>
+      <c r="K96">
+        <v>255</v>
+      </c>
+      <c r="L96">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>25500</v>
+      </c>
+      <c r="B97">
+        <v>255</v>
+      </c>
+      <c r="C97">
+        <v>255</v>
+      </c>
+      <c r="D97">
+        <v>255</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>255</v>
+      </c>
+      <c r="I97">
+        <v>255</v>
+      </c>
+      <c r="J97">
+        <v>255</v>
+      </c>
+      <c r="K97">
+        <v>255</v>
+      </c>
+      <c r="L97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>25500</v>
+      </c>
+      <c r="B98">
+        <v>255</v>
+      </c>
+      <c r="C98">
+        <v>255</v>
+      </c>
+      <c r="D98">
+        <v>255</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>255</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>255</v>
+      </c>
+      <c r="K98">
+        <v>255</v>
+      </c>
+      <c r="L98">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>25500</v>
+      </c>
+      <c r="B99">
+        <v>255</v>
+      </c>
+      <c r="C99">
+        <v>255</v>
+      </c>
+      <c r="D99">
+        <v>255</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>255</v>
+      </c>
+      <c r="I99">
+        <v>255</v>
+      </c>
+      <c r="J99">
+        <v>255</v>
+      </c>
+      <c r="K99">
+        <v>255</v>
+      </c>
+      <c r="L99">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>25500</v>
+      </c>
+      <c r="B100">
+        <v>255</v>
+      </c>
+      <c r="C100">
+        <v>255</v>
+      </c>
+      <c r="D100">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>255</v>
+      </c>
+      <c r="I100">
+        <v>255</v>
+      </c>
+      <c r="J100">
+        <v>255</v>
+      </c>
+      <c r="K100">
+        <v>255</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>25500</v>
+      </c>
+      <c r="B101">
+        <v>255</v>
+      </c>
+      <c r="C101">
+        <v>255</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>255</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>255</v>
+      </c>
+      <c r="K101">
+        <v>255</v>
+      </c>
+      <c r="L101">
         <v>255</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga9_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga9_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B2">
         <v>255</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B3">
         <v>255</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B4">
         <v>255</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B5">
         <v>255</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B6">
         <v>255</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B7">
         <v>255</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B8">
         <v>255</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B9">
         <v>255</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B10">
         <v>255</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B11">
         <v>255</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B12">
         <v>255</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>25472</v>
+        <v>51000</v>
       </c>
       <c r="B13">
-        <v>254.72</v>
+        <v>255</v>
       </c>
       <c r="C13">
         <v>255</v>
@@ -883,16 +883,16 @@
         <v>255</v>
       </c>
       <c r="E13">
-        <v>1.031919191919193</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.015834234468987</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I13">
         <v>255</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>25465</v>
+        <v>51000</v>
       </c>
       <c r="B14">
-        <v>254.65</v>
+        <v>255</v>
       </c>
       <c r="C14">
         <v>255</v>
@@ -921,16 +921,16 @@
         <v>255</v>
       </c>
       <c r="E14">
-        <v>2.169191919191922</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.47281768022791</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I14">
         <v>255</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>25464</v>
+        <v>51000</v>
       </c>
       <c r="B15">
-        <v>254.64</v>
+        <v>255</v>
       </c>
       <c r="C15">
         <v>255</v>
@@ -959,16 +959,16 @@
         <v>255</v>
       </c>
       <c r="E15">
-        <v>1.444848484848485</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.202018504370247</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I15">
         <v>255</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>25433</v>
+        <v>51000</v>
       </c>
       <c r="B16">
-        <v>254.33</v>
+        <v>255</v>
       </c>
       <c r="C16">
         <v>255</v>
@@ -997,16 +997,16 @@
         <v>255</v>
       </c>
       <c r="E16">
-        <v>7.294040404040405</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2.700748119325533</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="I16">
         <v>255</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>25169</v>
+        <v>51000</v>
       </c>
       <c r="B17">
-        <v>251.69</v>
+        <v>255</v>
       </c>
       <c r="C17">
         <v>255</v>
@@ -1035,16 +1035,16 @@
         <v>255</v>
       </c>
       <c r="E17">
-        <v>366.3776767676781</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>19.14099466505537</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="I17">
         <v>255</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>25171</v>
+        <v>51000</v>
       </c>
       <c r="B18">
-        <v>251.71</v>
+        <v>255</v>
       </c>
       <c r="C18">
         <v>255</v>
@@ -1073,16 +1073,16 @@
         <v>255</v>
       </c>
       <c r="E18">
-        <v>348.0665656565648</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>18.65654216773743</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="I18">
         <v>255</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>25240</v>
+        <v>51000</v>
       </c>
       <c r="B19">
-        <v>252.4</v>
+        <v>255</v>
       </c>
       <c r="C19">
         <v>255</v>
@@ -1111,16 +1111,16 @@
         <v>255</v>
       </c>
       <c r="E19">
-        <v>217.9797979797974</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>14.7641389176544</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="I19">
         <v>255</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>25151</v>
+        <v>51000</v>
       </c>
       <c r="B20">
-        <v>251.51</v>
+        <v>255</v>
       </c>
       <c r="C20">
         <v>255</v>
@@ -1149,16 +1149,16 @@
         <v>255</v>
       </c>
       <c r="E20">
-        <v>334.1110101010097</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>18.27870373141952</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="I20">
         <v>255</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>25214</v>
+        <v>51000</v>
       </c>
       <c r="B21">
-        <v>252.14</v>
+        <v>255</v>
       </c>
       <c r="C21">
         <v>255</v>
@@ -1187,16 +1187,16 @@
         <v>255</v>
       </c>
       <c r="E21">
-        <v>291.1519191919189</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>17.06317435859808</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="I21">
         <v>255</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>25264</v>
+        <v>51000</v>
       </c>
       <c r="B22">
-        <v>252.64</v>
+        <v>255</v>
       </c>
       <c r="C22">
         <v>255</v>
@@ -1225,16 +1225,16 @@
         <v>255</v>
       </c>
       <c r="E22">
-        <v>267.9903030303026</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>16.37040937271584</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="I22">
         <v>255</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>25249</v>
+        <v>50979</v>
       </c>
       <c r="B23">
-        <v>252.49</v>
+        <v>254.895</v>
       </c>
       <c r="C23">
         <v>255</v>
@@ -1263,22 +1263,22 @@
         <v>255</v>
       </c>
       <c r="E23">
-        <v>165.7473737373739</v>
+        <v>0.1547487437185923</v>
       </c>
       <c r="F23">
-        <v>12.87429119359096</v>
+        <v>0.3933811684849598</v>
       </c>
       <c r="G23">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="I23">
         <v>255</v>
       </c>
       <c r="J23">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K23">
         <v>255</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>25136</v>
+        <v>50951</v>
       </c>
       <c r="B24">
-        <v>251.36</v>
+        <v>254.755</v>
       </c>
       <c r="C24">
         <v>255</v>
@@ -1301,22 +1301,22 @@
         <v>255</v>
       </c>
       <c r="E24">
-        <v>113.081212121212</v>
+        <v>0.8592713567839165</v>
       </c>
       <c r="F24">
-        <v>10.63396502350896</v>
+        <v>0.9269689082077761</v>
       </c>
       <c r="G24">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="I24">
         <v>255</v>
       </c>
       <c r="J24">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K24">
         <v>255</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>25133</v>
+        <v>50946</v>
       </c>
       <c r="B25">
-        <v>251.33</v>
+        <v>254.73</v>
       </c>
       <c r="C25">
         <v>255</v>
@@ -1339,22 +1339,22 @@
         <v>255</v>
       </c>
       <c r="E25">
-        <v>141.0314141414141</v>
+        <v>1.524723618090452</v>
       </c>
       <c r="F25">
-        <v>11.87566478734619</v>
+        <v>1.234796994687974</v>
       </c>
       <c r="G25">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="I25">
         <v>255</v>
       </c>
       <c r="J25">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K25">
         <v>255</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>25165</v>
+        <v>50939</v>
       </c>
       <c r="B26">
-        <v>251.65</v>
+        <v>254.695</v>
       </c>
       <c r="C26">
         <v>255</v>
@@ -1377,22 +1377,22 @@
         <v>255</v>
       </c>
       <c r="E26">
-        <v>115.340909090909</v>
+        <v>1.549723618090456</v>
       </c>
       <c r="F26">
-        <v>10.73968850064605</v>
+        <v>1.244878957204457</v>
       </c>
       <c r="G26">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="I26">
         <v>255</v>
       </c>
       <c r="J26">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K26">
         <v>255</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>25047</v>
+        <v>50939</v>
       </c>
       <c r="B27">
-        <v>250.47</v>
+        <v>254.695</v>
       </c>
       <c r="C27">
         <v>255</v>
@@ -1415,22 +1415,22 @@
         <v>255</v>
       </c>
       <c r="E27">
-        <v>104.0899999999999</v>
+        <v>1.50952261306533</v>
       </c>
       <c r="F27">
-        <v>10.20245068598716</v>
+        <v>1.228626311400391</v>
       </c>
       <c r="G27">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="I27">
         <v>255</v>
       </c>
       <c r="J27">
-        <v>250.75</v>
+        <v>255</v>
       </c>
       <c r="K27">
         <v>255</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>24828</v>
+        <v>50935</v>
       </c>
       <c r="B28">
-        <v>248.28</v>
+        <v>254.675</v>
       </c>
       <c r="C28">
         <v>255</v>
@@ -1453,22 +1453,22 @@
         <v>255</v>
       </c>
       <c r="E28">
-        <v>192.5672727272728</v>
+        <v>1.818467336683409</v>
       </c>
       <c r="F28">
-        <v>13.87686105454951</v>
+        <v>1.348505593864337</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H28">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="I28">
         <v>255</v>
       </c>
       <c r="J28">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K28">
         <v>255</v>
@@ -1479,37 +1479,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>24585</v>
+        <v>50930</v>
       </c>
       <c r="B29">
-        <v>245.85</v>
+        <v>254.65</v>
       </c>
       <c r="C29">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D29">
         <v>255</v>
       </c>
       <c r="E29">
-        <v>445.1994949494959</v>
+        <v>2.04773869346734</v>
       </c>
       <c r="F29">
-        <v>21.09975106368546</v>
+        <v>1.430992205942206</v>
       </c>
       <c r="G29">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="H29">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="I29">
         <v>255</v>
       </c>
       <c r="J29">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K29">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L29">
         <v>255</v>
@@ -1517,37 +1517,37 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>24655</v>
+        <v>50890</v>
       </c>
       <c r="B30">
-        <v>246.55</v>
+        <v>254.45</v>
       </c>
       <c r="C30">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D30">
         <v>255</v>
       </c>
       <c r="E30">
-        <v>253.5429292929294</v>
+        <v>4.319095477386933</v>
       </c>
       <c r="F30">
-        <v>15.92303141028521</v>
+        <v>2.078243363368913</v>
       </c>
       <c r="G30">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="I30">
         <v>255</v>
       </c>
       <c r="J30">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="K30">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30">
         <v>255</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>24870</v>
+        <v>50754</v>
       </c>
       <c r="B31">
-        <v>248.7</v>
+        <v>253.77</v>
       </c>
       <c r="C31">
         <v>255</v>
@@ -1567,22 +1567,22 @@
         <v>255</v>
       </c>
       <c r="E31">
-        <v>377.4040404040408</v>
+        <v>32.86140703517577</v>
       </c>
       <c r="F31">
-        <v>19.42688962248051</v>
+        <v>5.73248698517282</v>
       </c>
       <c r="G31">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="H31">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="I31">
         <v>255</v>
       </c>
       <c r="J31">
-        <v>249.75</v>
+        <v>255</v>
       </c>
       <c r="K31">
         <v>255</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>24518</v>
+        <v>50501</v>
       </c>
       <c r="B32">
-        <v>245.18</v>
+        <v>252.505</v>
       </c>
       <c r="C32">
         <v>255</v>
@@ -1605,22 +1605,22 @@
         <v>255</v>
       </c>
       <c r="E32">
-        <v>859.7248484848501</v>
+        <v>176.1708291457284</v>
       </c>
       <c r="F32">
-        <v>29.32106492753717</v>
+        <v>13.27293596555519</v>
       </c>
       <c r="G32">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="H32">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>249.75</v>
+        <v>255</v>
       </c>
       <c r="K32">
         <v>255</v>
@@ -1631,37 +1631,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>24000</v>
+        <v>50186</v>
       </c>
       <c r="B33">
-        <v>240</v>
+        <v>250.93</v>
       </c>
       <c r="C33">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D33">
         <v>255</v>
       </c>
       <c r="E33">
-        <v>1406.848484848485</v>
+        <v>528.08552763819</v>
       </c>
       <c r="F33">
-        <v>37.50797894913141</v>
+        <v>22.98011156713975</v>
       </c>
       <c r="G33">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="H33">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="I33">
         <v>255</v>
       </c>
       <c r="J33">
-        <v>244.75</v>
+        <v>255</v>
       </c>
       <c r="K33">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L33">
         <v>255</v>
@@ -1669,37 +1669,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>23745</v>
+        <v>50244</v>
       </c>
       <c r="B34">
-        <v>237.45</v>
+        <v>251.22</v>
       </c>
       <c r="C34">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D34">
         <v>255</v>
       </c>
       <c r="E34">
-        <v>2094.53282828283</v>
+        <v>448.2830150753788</v>
       </c>
       <c r="F34">
-        <v>45.76606634049762</v>
+        <v>21.17269503571472</v>
       </c>
       <c r="G34">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="H34">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="I34">
         <v>255</v>
       </c>
       <c r="J34">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K34">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>23424</v>
+        <v>50400</v>
       </c>
       <c r="B35">
-        <v>234.24</v>
+        <v>252</v>
       </c>
       <c r="C35">
         <v>255</v>
@@ -1719,22 +1719,22 @@
         <v>255</v>
       </c>
       <c r="E35">
-        <v>2683.275151515153</v>
+        <v>281.3768844221105</v>
       </c>
       <c r="F35">
-        <v>51.80033929922808</v>
+        <v>16.77429236725384</v>
       </c>
       <c r="G35">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I35">
         <v>255</v>
       </c>
       <c r="J35">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K35">
         <v>255</v>
@@ -1745,37 +1745,37 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>23080</v>
+        <v>50510</v>
       </c>
       <c r="B36">
-        <v>230.8</v>
+        <v>252.55</v>
       </c>
       <c r="C36">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D36">
         <v>255</v>
       </c>
       <c r="E36">
-        <v>3306.14141414142</v>
+        <v>210.0477386934683</v>
       </c>
       <c r="F36">
-        <v>57.49905576738995</v>
+        <v>14.49302379400063</v>
       </c>
       <c r="G36">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="H36">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="I36">
         <v>255</v>
       </c>
       <c r="J36">
-        <v>246.75</v>
+        <v>255</v>
       </c>
       <c r="K36">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L36">
         <v>255</v>
@@ -1783,37 +1783,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>22726</v>
+        <v>50450</v>
       </c>
       <c r="B37">
-        <v>227.26</v>
+        <v>252.25</v>
       </c>
       <c r="C37">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D37">
         <v>255</v>
       </c>
       <c r="E37">
-        <v>3973.648888888889</v>
+        <v>225.5251256281407</v>
       </c>
       <c r="F37">
-        <v>63.03688514583259</v>
+        <v>15.01749398628615</v>
       </c>
       <c r="G37">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I37">
         <v>255</v>
       </c>
       <c r="J37">
-        <v>244.75</v>
+        <v>255</v>
       </c>
       <c r="K37">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L37">
         <v>255</v>
@@ -1821,37 +1821,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>22448</v>
+        <v>50358</v>
       </c>
       <c r="B38">
-        <v>224.48</v>
+        <v>251.79</v>
       </c>
       <c r="C38">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="D38">
         <v>255</v>
       </c>
       <c r="E38">
-        <v>4537.625858585855</v>
+        <v>283.6541708542719</v>
       </c>
       <c r="F38">
-        <v>67.36190213010508</v>
+        <v>16.84203582867201</v>
       </c>
       <c r="G38">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="H38">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I38">
         <v>255</v>
       </c>
       <c r="J38">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="K38">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="L38">
         <v>255</v>
@@ -1859,37 +1859,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>22159</v>
+        <v>50319</v>
       </c>
       <c r="B39">
-        <v>221.59</v>
+        <v>251.595</v>
       </c>
       <c r="C39">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D39">
         <v>255</v>
       </c>
       <c r="E39">
-        <v>4693.759494949498</v>
+        <v>321.5889195979893</v>
       </c>
       <c r="F39">
-        <v>68.51101732531417</v>
+        <v>17.93290047923061</v>
       </c>
       <c r="G39">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="H39">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I39">
         <v>255</v>
       </c>
       <c r="J39">
-        <v>240.75</v>
+        <v>255</v>
       </c>
       <c r="K39">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L39">
         <v>255</v>
@@ -1897,37 +1897,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>21846</v>
+        <v>50403</v>
       </c>
       <c r="B40">
-        <v>218.46</v>
+        <v>252.015</v>
       </c>
       <c r="C40">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40">
-        <v>5275.523636363639</v>
+        <v>276.4470100502511</v>
       </c>
       <c r="F40">
-        <v>72.6328000036047</v>
+        <v>16.62669570450639</v>
       </c>
       <c r="G40">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="H40">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K40">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L40">
         <v>255</v>
@@ -1935,37 +1935,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>21591</v>
+        <v>50493</v>
       </c>
       <c r="B41">
-        <v>215.91</v>
+        <v>252.465</v>
       </c>
       <c r="C41">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>255</v>
       </c>
       <c r="E41">
-        <v>5466.22414141414</v>
+        <v>233.0640954773881</v>
       </c>
       <c r="F41">
-        <v>73.93391739529389</v>
+        <v>15.26643689527416</v>
       </c>
       <c r="G41">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="H41">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>232.75</v>
+        <v>255</v>
       </c>
       <c r="K41">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L41">
         <v>255</v>
@@ -1973,37 +1973,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>21360</v>
+        <v>50548</v>
       </c>
       <c r="B42">
-        <v>213.6</v>
+        <v>252.74</v>
       </c>
       <c r="C42">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D42">
         <v>255</v>
       </c>
       <c r="E42">
-        <v>5753.515151515145</v>
+        <v>218.8767839195992</v>
       </c>
       <c r="F42">
-        <v>75.85192912190925</v>
+        <v>14.79448491565689</v>
       </c>
       <c r="G42">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I42">
         <v>255</v>
       </c>
       <c r="J42">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K42">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L42">
         <v>255</v>
@@ -2011,37 +2011,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>21112</v>
+        <v>50583</v>
       </c>
       <c r="B43">
-        <v>211.12</v>
+        <v>252.915</v>
       </c>
       <c r="C43">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="D43">
         <v>255</v>
       </c>
       <c r="E43">
-        <v>5933.500606060617</v>
+        <v>190.5203768844212</v>
       </c>
       <c r="F43">
-        <v>77.02921917078361</v>
+        <v>13.80291189874156</v>
       </c>
       <c r="G43">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="H43">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I43">
         <v>255</v>
       </c>
       <c r="J43">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="K43">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="L43">
         <v>255</v>
@@ -2049,37 +2049,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>20857</v>
+        <v>50629</v>
       </c>
       <c r="B44">
-        <v>208.57</v>
+        <v>253.145</v>
       </c>
       <c r="C44">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D44">
         <v>255</v>
       </c>
       <c r="E44">
-        <v>6112.894040404049</v>
+        <v>135.2602763819096</v>
       </c>
       <c r="F44">
-        <v>78.18499881949253</v>
+        <v>11.63014515738774</v>
       </c>
       <c r="G44">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="H44">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I44">
         <v>255</v>
       </c>
       <c r="J44">
-        <v>210.5</v>
+        <v>255</v>
       </c>
       <c r="K44">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L44">
         <v>255</v>
@@ -2087,37 +2087,37 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>20558</v>
+        <v>50445</v>
       </c>
       <c r="B45">
-        <v>205.58</v>
+        <v>252.225</v>
       </c>
       <c r="C45">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D45">
         <v>255</v>
       </c>
       <c r="E45">
-        <v>6351.155151515159</v>
+        <v>153.6526381909552</v>
       </c>
       <c r="F45">
-        <v>79.69413498818567</v>
+        <v>12.39567013884103</v>
       </c>
       <c r="G45">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="H45">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="I45">
         <v>255</v>
       </c>
       <c r="J45">
-        <v>191.5</v>
+        <v>254</v>
       </c>
       <c r="K45">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L45">
         <v>255</v>
@@ -2125,37 +2125,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>20456</v>
+        <v>50325</v>
       </c>
       <c r="B46">
-        <v>204.56</v>
+        <v>251.625</v>
       </c>
       <c r="C46">
+        <v>255</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>132.125</v>
+      </c>
+      <c r="F46">
+        <v>11.49456393257265</v>
+      </c>
+      <c r="G46">
+        <v>108</v>
+      </c>
+      <c r="H46">
+        <v>147</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
         <v>252</v>
       </c>
-      <c r="D46">
-        <v>255</v>
-      </c>
-      <c r="E46">
-        <v>6377.865050505046</v>
-      </c>
-      <c r="F46">
-        <v>79.86153674019207</v>
-      </c>
-      <c r="G46">
-        <v>236</v>
-      </c>
-      <c r="H46">
-        <v>19</v>
-      </c>
-      <c r="I46">
-        <v>255</v>
-      </c>
-      <c r="J46">
-        <v>180.5</v>
-      </c>
       <c r="K46">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L46">
         <v>255</v>
@@ -2163,37 +2163,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>20289</v>
+        <v>50298</v>
       </c>
       <c r="B47">
-        <v>202.89</v>
+        <v>251.49</v>
       </c>
       <c r="C47">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D47">
         <v>255</v>
       </c>
       <c r="E47">
-        <v>6404.523131313129</v>
+        <v>107.1154773869349</v>
       </c>
       <c r="F47">
-        <v>80.02826457766736</v>
+        <v>10.34966073776986</v>
       </c>
       <c r="G47">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="H47">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="K47">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L47">
         <v>255</v>
@@ -2201,37 +2201,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>20103</v>
+        <v>50321</v>
       </c>
       <c r="B48">
-        <v>201.03</v>
+        <v>251.605</v>
       </c>
       <c r="C48">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="D48">
         <v>255</v>
       </c>
       <c r="E48">
-        <v>6417.403131313132</v>
+        <v>131.3758542713565</v>
       </c>
       <c r="F48">
-        <v>80.10869572844842</v>
+        <v>11.46193065200434</v>
       </c>
       <c r="G48">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="H48">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="K48">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="L48">
         <v>255</v>
@@ -2239,37 +2239,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>19973</v>
+        <v>50221</v>
       </c>
       <c r="B49">
-        <v>199.73</v>
+        <v>251.105</v>
       </c>
       <c r="C49">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D49">
         <v>255</v>
       </c>
       <c r="E49">
-        <v>6488.300101010093</v>
+        <v>138.0642964824119</v>
       </c>
       <c r="F49">
-        <v>80.54998510868946</v>
+        <v>11.7500764458114</v>
       </c>
       <c r="G49">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="H49">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>164.75</v>
+        <v>251.75</v>
       </c>
       <c r="K49">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L49">
         <v>255</v>
@@ -2277,37 +2277,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>19835</v>
+        <v>50254</v>
       </c>
       <c r="B50">
-        <v>198.35</v>
+        <v>251.27</v>
       </c>
       <c r="C50">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="D50">
         <v>255</v>
       </c>
       <c r="E50">
-        <v>6509.118686868694</v>
+        <v>118.6604020100501</v>
       </c>
       <c r="F50">
-        <v>80.67910935842495</v>
+        <v>10.89313554538133</v>
       </c>
       <c r="G50">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="H50">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>164.75</v>
+        <v>250</v>
       </c>
       <c r="K50">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="L50">
         <v>255</v>
@@ -2315,37 +2315,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>19772</v>
+        <v>50343</v>
       </c>
       <c r="B51">
-        <v>197.72</v>
+        <v>251.715</v>
       </c>
       <c r="C51">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="D51">
         <v>255</v>
       </c>
       <c r="E51">
-        <v>6496.021818181826</v>
+        <v>97.90329145728667</v>
       </c>
       <c r="F51">
-        <v>80.59790207059875</v>
+        <v>9.894609211954087</v>
       </c>
       <c r="G51">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="H51">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="I51">
         <v>255</v>
       </c>
       <c r="J51">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="K51">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="L51">
         <v>255</v>
@@ -2353,37 +2353,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>19716</v>
+        <v>50143</v>
       </c>
       <c r="B52">
-        <v>197.16</v>
+        <v>250.715</v>
       </c>
       <c r="C52">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="D52">
         <v>255</v>
       </c>
       <c r="E52">
-        <v>6232.277171717171</v>
+        <v>91.99374371859317</v>
       </c>
       <c r="F52">
-        <v>78.94477292206983</v>
+        <v>9.59133690986784</v>
       </c>
       <c r="G52">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="H52">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="I52">
         <v>255</v>
       </c>
       <c r="J52">
-        <v>153.75</v>
+        <v>250</v>
       </c>
       <c r="K52">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="L52">
         <v>255</v>
@@ -2391,37 +2391,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>19772</v>
+        <v>49995</v>
       </c>
       <c r="B53">
-        <v>197.72</v>
+        <v>249.975</v>
       </c>
       <c r="C53">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="D53">
         <v>255</v>
       </c>
       <c r="E53">
-        <v>5935.031919191928</v>
+        <v>124.295854271357</v>
       </c>
       <c r="F53">
-        <v>77.03915834945192</v>
+        <v>11.14880506024556</v>
       </c>
       <c r="G53">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="H53">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="I53">
         <v>255</v>
       </c>
       <c r="J53">
-        <v>147.5</v>
+        <v>251</v>
       </c>
       <c r="K53">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="L53">
         <v>255</v>
@@ -2429,37 +2429,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>19860</v>
+        <v>49769</v>
       </c>
       <c r="B54">
-        <v>198.6</v>
+        <v>248.845</v>
       </c>
       <c r="C54">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D54">
         <v>255</v>
       </c>
       <c r="E54">
-        <v>5688.727272727268</v>
+        <v>177.6190703517586</v>
       </c>
       <c r="F54">
-        <v>75.42365194504485</v>
+        <v>13.32738047598847</v>
       </c>
       <c r="G54">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="H54">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="I54">
         <v>255</v>
       </c>
       <c r="J54">
-        <v>141.75</v>
+        <v>249</v>
       </c>
       <c r="K54">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L54">
         <v>255</v>
@@ -2467,37 +2467,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>19937</v>
+        <v>49484</v>
       </c>
       <c r="B55">
-        <v>199.37</v>
+        <v>247.42</v>
       </c>
       <c r="C55">
-        <v>247.5</v>
+        <v>255</v>
       </c>
       <c r="D55">
         <v>255</v>
       </c>
       <c r="E55">
-        <v>5431.952626262623</v>
+        <v>291.0287437185936</v>
       </c>
       <c r="F55">
-        <v>73.70178170344747</v>
+        <v>17.05956458174105</v>
       </c>
       <c r="G55">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="H55">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="I55">
         <v>255</v>
       </c>
       <c r="J55">
-        <v>138.25</v>
+        <v>249</v>
       </c>
       <c r="K55">
-        <v>247.5</v>
+        <v>255</v>
       </c>
       <c r="L55">
         <v>255</v>
@@ -2505,37 +2505,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>20152</v>
+        <v>49222</v>
       </c>
       <c r="B56">
-        <v>201.52</v>
+        <v>246.11</v>
       </c>
       <c r="C56">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D56">
         <v>255</v>
       </c>
       <c r="E56">
-        <v>5146.534949494951</v>
+        <v>451.3345728643209</v>
       </c>
       <c r="F56">
-        <v>71.73935425897665</v>
+        <v>21.24463633165606</v>
       </c>
       <c r="G56">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="H56">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>148.5</v>
+        <v>247</v>
       </c>
       <c r="K56">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L56">
         <v>255</v>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>20159</v>
+        <v>49097</v>
       </c>
       <c r="B57">
-        <v>201.59</v>
+        <v>245.485</v>
       </c>
       <c r="C57">
-        <v>250.5</v>
+        <v>254</v>
       </c>
       <c r="D57">
         <v>255</v>
       </c>
       <c r="E57">
-        <v>5031.173636363632</v>
+        <v>494.6228894472363</v>
       </c>
       <c r="F57">
-        <v>70.93076650060699</v>
+        <v>22.24011891711095</v>
       </c>
       <c r="G57">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="H57">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>143.75</v>
+        <v>248</v>
       </c>
       <c r="K57">
-        <v>250.5</v>
+        <v>254</v>
       </c>
       <c r="L57">
         <v>255</v>
@@ -2581,37 +2581,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>20153</v>
+        <v>49153</v>
       </c>
       <c r="B58">
-        <v>201.53</v>
+        <v>245.765</v>
       </c>
       <c r="C58">
-        <v>249.5</v>
+        <v>254</v>
       </c>
       <c r="D58">
         <v>255</v>
       </c>
       <c r="E58">
-        <v>4911.221313131319</v>
+        <v>375.8188693467333</v>
       </c>
       <c r="F58">
-        <v>70.08010640068491</v>
+        <v>19.38604831694003</v>
       </c>
       <c r="G58">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="H58">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>139.75</v>
+        <v>247</v>
       </c>
       <c r="K58">
-        <v>249.5</v>
+        <v>254</v>
       </c>
       <c r="L58">
         <v>255</v>
@@ -2619,37 +2619,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>20234</v>
+        <v>49428</v>
       </c>
       <c r="B59">
-        <v>202.34</v>
+        <v>247.14</v>
       </c>
       <c r="C59">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D59">
         <v>255</v>
       </c>
       <c r="E59">
-        <v>4801.479191919189</v>
+        <v>283.8194974874377</v>
       </c>
       <c r="F59">
-        <v>69.29270662861417</v>
+        <v>16.84694326836289</v>
       </c>
       <c r="G59">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="H59">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>139.75</v>
+        <v>244</v>
       </c>
       <c r="K59">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L59">
         <v>255</v>
@@ -2657,37 +2657,37 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>20275</v>
+        <v>49704</v>
       </c>
       <c r="B60">
-        <v>202.75</v>
+        <v>248.52</v>
       </c>
       <c r="C60">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D60">
         <v>255</v>
       </c>
       <c r="E60">
-        <v>4675.704545454545</v>
+        <v>335.1754773869342</v>
       </c>
       <c r="F60">
-        <v>68.37912360841243</v>
+        <v>18.30779826704823</v>
       </c>
       <c r="G60">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="H60">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>140.5</v>
+        <v>248.75</v>
       </c>
       <c r="K60">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L60">
         <v>255</v>
@@ -2695,37 +2695,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>20296</v>
+        <v>49638</v>
       </c>
       <c r="B61">
-        <v>202.96</v>
+        <v>248.19</v>
       </c>
       <c r="C61">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D61">
         <v>255</v>
       </c>
       <c r="E61">
-        <v>4526.644848484848</v>
+        <v>461.9737688442191</v>
       </c>
       <c r="F61">
-        <v>67.28034518702211</v>
+        <v>21.49357505963629</v>
       </c>
       <c r="G61">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H61">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>136.75</v>
+        <v>250</v>
       </c>
       <c r="K61">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L61">
         <v>255</v>
@@ -2733,37 +2733,37 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>20365</v>
+        <v>49310</v>
       </c>
       <c r="B62">
-        <v>203.65</v>
+        <v>246.55</v>
       </c>
       <c r="C62">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D62">
         <v>255</v>
       </c>
       <c r="E62">
-        <v>4443.664141414144</v>
+        <v>690.1783919597995</v>
       </c>
       <c r="F62">
-        <v>66.66081413704865</v>
+        <v>26.27124648660203</v>
       </c>
       <c r="G62">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H62">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I62">
         <v>255</v>
       </c>
       <c r="J62">
-        <v>139</v>
+        <v>248.75</v>
       </c>
       <c r="K62">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L62">
         <v>255</v>
@@ -2771,37 +2771,37 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>20457</v>
+        <v>48824</v>
       </c>
       <c r="B63">
-        <v>204.57</v>
+        <v>244.12</v>
       </c>
       <c r="C63">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D63">
         <v>255</v>
       </c>
       <c r="E63">
-        <v>4221.136464646463</v>
+        <v>1031.925226130655</v>
       </c>
       <c r="F63">
-        <v>64.97027369995037</v>
+        <v>32.12359298289428</v>
       </c>
       <c r="G63">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H63">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I63">
         <v>255</v>
       </c>
       <c r="J63">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="K63">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L63">
         <v>255</v>
@@ -2809,37 +2809,37 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>20599</v>
+        <v>48218</v>
       </c>
       <c r="B64">
-        <v>205.99</v>
+        <v>241.09</v>
       </c>
       <c r="C64">
-        <v>250.5</v>
+        <v>254</v>
       </c>
       <c r="D64">
         <v>255</v>
       </c>
       <c r="E64">
-        <v>4074.676666666664</v>
+        <v>1270.996884422108</v>
       </c>
       <c r="F64">
-        <v>63.83319408165836</v>
+        <v>35.65104324451261</v>
       </c>
       <c r="G64">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H64">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="K64">
-        <v>250.5</v>
+        <v>254</v>
       </c>
       <c r="L64">
         <v>255</v>
@@ -2847,37 +2847,37 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>20703</v>
+        <v>47958</v>
       </c>
       <c r="B65">
-        <v>207.03</v>
+        <v>239.79</v>
       </c>
       <c r="C65">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>3967.84757575757</v>
+        <v>1517.322512562811</v>
       </c>
       <c r="F65">
-        <v>62.99085311184133</v>
+        <v>38.95282419238444</v>
       </c>
       <c r="G65">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H65">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I65">
         <v>255</v>
       </c>
       <c r="J65">
-        <v>154.5</v>
+        <v>247</v>
       </c>
       <c r="K65">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L65">
         <v>255</v>
@@ -2885,37 +2885,37 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>20796</v>
+        <v>47751</v>
       </c>
       <c r="B66">
-        <v>207.96</v>
+        <v>238.755</v>
       </c>
       <c r="C66">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D66">
         <v>255</v>
       </c>
       <c r="E66">
-        <v>3867.19030303031</v>
+        <v>1837.9346482412</v>
       </c>
       <c r="F66">
-        <v>62.18673735637134</v>
+        <v>42.87114003897261</v>
       </c>
       <c r="G66">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H66">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I66">
         <v>255</v>
       </c>
       <c r="J66">
-        <v>154.75</v>
+        <v>249</v>
       </c>
       <c r="K66">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L66">
         <v>255</v>
@@ -2923,37 +2923,37 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>20878</v>
+        <v>47237</v>
       </c>
       <c r="B67">
-        <v>208.78</v>
+        <v>236.185</v>
       </c>
       <c r="C67">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D67">
         <v>255</v>
       </c>
       <c r="E67">
-        <v>3949.870303030309</v>
+        <v>2336.382688442206</v>
       </c>
       <c r="F67">
-        <v>62.84799362772299</v>
+        <v>48.33614267235446</v>
       </c>
       <c r="G67">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H67">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>160.75</v>
+        <v>248</v>
       </c>
       <c r="K67">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L67">
         <v>255</v>
@@ -2961,22 +2961,22 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>20998</v>
+        <v>46991</v>
       </c>
       <c r="B68">
-        <v>209.98</v>
+        <v>234.955</v>
       </c>
       <c r="C68">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D68">
         <v>255</v>
       </c>
       <c r="E68">
-        <v>3843.938989898993</v>
+        <v>2548.364798994968</v>
       </c>
       <c r="F68">
-        <v>61.99950798110411</v>
+        <v>50.48133119277827</v>
       </c>
       <c r="G68">
         <v>222</v>
@@ -2988,10 +2988,10 @@
         <v>255</v>
       </c>
       <c r="J68">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="K68">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L68">
         <v>255</v>
@@ -2999,37 +2999,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>21113</v>
+        <v>46686</v>
       </c>
       <c r="B69">
-        <v>211.13</v>
+        <v>233.43</v>
       </c>
       <c r="C69">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
       <c r="E69">
-        <v>3817.993030303029</v>
+        <v>2825.472462311547</v>
       </c>
       <c r="F69">
-        <v>61.78991042478561</v>
+        <v>53.15517342941839</v>
       </c>
       <c r="G69">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H69">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I69">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="K69">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L69">
         <v>255</v>
@@ -3037,37 +3037,37 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>21194</v>
+        <v>46332</v>
       </c>
       <c r="B70">
-        <v>211.94</v>
+        <v>231.66</v>
       </c>
       <c r="C70">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70">
         <v>255</v>
       </c>
       <c r="E70">
-        <v>3947.471111111118</v>
+        <v>3167.049648241214</v>
       </c>
       <c r="F70">
-        <v>62.82890346895383</v>
+        <v>56.27654616482086</v>
       </c>
       <c r="G70">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="H70">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I70">
         <v>255</v>
       </c>
       <c r="J70">
-        <v>167.75</v>
+        <v>247</v>
       </c>
       <c r="K70">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L70">
         <v>255</v>
@@ -3075,37 +3075,37 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>21291</v>
+        <v>45997</v>
       </c>
       <c r="B71">
-        <v>212.91</v>
+        <v>229.985</v>
       </c>
       <c r="C71">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D71">
         <v>255</v>
       </c>
       <c r="E71">
-        <v>4066.466565656558</v>
+        <v>3488.818869346729</v>
       </c>
       <c r="F71">
-        <v>63.76885262929354</v>
+        <v>59.06622443788606</v>
       </c>
       <c r="G71">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H71">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I71">
         <v>255</v>
       </c>
       <c r="J71">
-        <v>172.75</v>
+        <v>246</v>
       </c>
       <c r="K71">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L71">
         <v>255</v>
@@ -3113,37 +3113,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>21457</v>
+        <v>45628</v>
       </c>
       <c r="B72">
-        <v>214.57</v>
+        <v>228.14</v>
       </c>
       <c r="C72">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D72">
         <v>255</v>
       </c>
       <c r="E72">
-        <v>4051.863737373742</v>
+        <v>3787.819497487426</v>
       </c>
       <c r="F72">
-        <v>63.65425152630217</v>
+        <v>61.54526381036502</v>
       </c>
       <c r="G72">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H72">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I72">
         <v>255</v>
       </c>
       <c r="J72">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="K72">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L72">
         <v>255</v>
@@ -3151,37 +3151,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>21549</v>
+        <v>45297</v>
       </c>
       <c r="B73">
-        <v>215.49</v>
+        <v>226.485</v>
       </c>
       <c r="C73">
-        <v>255</v>
+        <v>253.5</v>
       </c>
       <c r="D73">
         <v>255</v>
       </c>
       <c r="E73">
-        <v>4045.686767676764</v>
+        <v>4115.909321608029</v>
       </c>
       <c r="F73">
-        <v>63.60571332574428</v>
+        <v>64.15535302379708</v>
       </c>
       <c r="G73">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H73">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I73">
         <v>255</v>
       </c>
       <c r="J73">
-        <v>178</v>
+        <v>246.75</v>
       </c>
       <c r="K73">
-        <v>255</v>
+        <v>253.5</v>
       </c>
       <c r="L73">
         <v>255</v>
@@ -3189,37 +3189,37 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>21566</v>
+        <v>45025</v>
       </c>
       <c r="B74">
-        <v>215.66</v>
+        <v>225.125</v>
       </c>
       <c r="C74">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D74">
         <v>255</v>
       </c>
       <c r="E74">
-        <v>4310.933737373732</v>
+        <v>4405.506909547738</v>
       </c>
       <c r="F74">
-        <v>65.65770128000014</v>
+        <v>66.37399271964689</v>
       </c>
       <c r="G74">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I74">
         <v>255</v>
       </c>
       <c r="J74">
-        <v>187.75</v>
+        <v>244.75</v>
       </c>
       <c r="K74">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L74">
         <v>255</v>
@@ -3227,37 +3227,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>21553</v>
+        <v>44801</v>
       </c>
       <c r="B75">
-        <v>215.53</v>
+        <v>224.005</v>
       </c>
       <c r="C75">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D75">
         <v>255</v>
       </c>
       <c r="E75">
-        <v>4616.595050505046</v>
+        <v>4541.884396984934</v>
       </c>
       <c r="F75">
-        <v>67.94553002593361</v>
+        <v>67.39350411564111</v>
       </c>
       <c r="G75">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H75">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I75">
         <v>255</v>
       </c>
       <c r="J75">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="K75">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L75">
         <v>255</v>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>21548</v>
+        <v>44499</v>
       </c>
       <c r="B76">
-        <v>215.48</v>
+        <v>222.495</v>
       </c>
       <c r="C76">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D76">
         <v>255</v>
       </c>
       <c r="E76">
-        <v>4887.605656565649</v>
+        <v>4630.803994974883</v>
       </c>
       <c r="F76">
-        <v>69.91141292067876</v>
+        <v>68.05001098438473</v>
       </c>
       <c r="G76">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="H76">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I76">
         <v>255</v>
       </c>
       <c r="J76">
-        <v>207.5</v>
+        <v>244</v>
       </c>
       <c r="K76">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L76">
         <v>255</v>
@@ -3303,37 +3303,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>21704</v>
+        <v>44166</v>
       </c>
       <c r="B77">
-        <v>217.04</v>
+        <v>220.83</v>
       </c>
       <c r="C77">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D77">
         <v>255</v>
       </c>
       <c r="E77">
-        <v>4864.766060606055</v>
+        <v>4854.302613065323</v>
       </c>
       <c r="F77">
-        <v>69.74787495405187</v>
+        <v>69.67282549936756</v>
       </c>
       <c r="G77">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H77">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I77">
         <v>255</v>
       </c>
       <c r="J77">
-        <v>225.75</v>
+        <v>241</v>
       </c>
       <c r="K77">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L77">
         <v>255</v>
@@ -3341,37 +3341,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>21491</v>
+        <v>43815</v>
       </c>
       <c r="B78">
-        <v>214.91</v>
+        <v>219.075</v>
       </c>
       <c r="C78">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D78">
         <v>255</v>
       </c>
       <c r="E78">
-        <v>5696.224141414153</v>
+        <v>5215.707914572854</v>
       </c>
       <c r="F78">
-        <v>75.47333397574373</v>
+        <v>72.21985817330891</v>
       </c>
       <c r="G78">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I78">
         <v>255</v>
       </c>
       <c r="J78">
-        <v>237.5</v>
+        <v>237.75</v>
       </c>
       <c r="K78">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L78">
         <v>255</v>
@@ -3379,37 +3379,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>22354</v>
+        <v>43610</v>
       </c>
       <c r="B79">
-        <v>223.54</v>
+        <v>218.05</v>
       </c>
       <c r="C79">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D79">
         <v>255</v>
       </c>
       <c r="E79">
-        <v>4341.362020202021</v>
+        <v>5264.881909547735</v>
       </c>
       <c r="F79">
-        <v>65.88901289442741</v>
+        <v>72.55950599024041</v>
       </c>
       <c r="G79">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I79">
         <v>255</v>
       </c>
       <c r="J79">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="K79">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L79">
         <v>255</v>
@@ -3417,37 +3417,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>25011</v>
+        <v>43329</v>
       </c>
       <c r="B80">
-        <v>250.11</v>
+        <v>216.645</v>
       </c>
       <c r="C80">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D80">
         <v>255</v>
       </c>
       <c r="E80">
-        <v>191.1089898989904</v>
+        <v>5380.853241206036</v>
       </c>
       <c r="F80">
-        <v>13.82421751488996</v>
+        <v>73.35429940505216</v>
       </c>
       <c r="G80">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="H80">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I80">
         <v>255</v>
       </c>
       <c r="J80">
-        <v>252.75</v>
+        <v>237</v>
       </c>
       <c r="K80">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L80">
         <v>255</v>
@@ -3455,37 +3455,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>25398</v>
+        <v>43063</v>
       </c>
       <c r="B81">
-        <v>253.98</v>
+        <v>215.315</v>
       </c>
       <c r="C81">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D81">
         <v>255</v>
       </c>
       <c r="E81">
-        <v>4.201616161616169</v>
+        <v>5528.890226130652</v>
       </c>
       <c r="F81">
-        <v>2.049784418327003</v>
+        <v>74.35650762462323</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="H81">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I81">
         <v>255</v>
       </c>
       <c r="J81">
-        <v>254</v>
+        <v>234.5</v>
       </c>
       <c r="K81">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L81">
         <v>255</v>
@@ -3493,37 +3493,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>25408</v>
+        <v>42826</v>
       </c>
       <c r="B82">
-        <v>254.08</v>
+        <v>214.13</v>
       </c>
       <c r="C82">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D82">
         <v>255</v>
       </c>
       <c r="E82">
-        <v>3.730909090909085</v>
+        <v>5711.410150753772</v>
       </c>
       <c r="F82">
-        <v>1.931556131959174</v>
+        <v>75.573872143445</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="H82">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="I82">
         <v>255</v>
       </c>
       <c r="J82">
-        <v>254.75</v>
+        <v>233.5</v>
       </c>
       <c r="K82">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L82">
         <v>255</v>
@@ -3531,37 +3531,37 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>25500</v>
+        <v>42596</v>
       </c>
       <c r="B83">
-        <v>255</v>
+        <v>212.98</v>
       </c>
       <c r="C83">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D83">
         <v>255</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>5838.100100502497</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>76.40746102641087</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H83">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I83">
         <v>255</v>
       </c>
       <c r="J83">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="K83">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L83">
         <v>255</v>
@@ -3569,37 +3569,37 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>25500</v>
+        <v>42340</v>
       </c>
       <c r="B84">
-        <v>255</v>
+        <v>211.7</v>
       </c>
       <c r="C84">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D84">
         <v>255</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>5906.713567839171</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>76.85514665810723</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H84">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I84">
         <v>255</v>
       </c>
       <c r="J84">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="K84">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L84">
         <v>255</v>
@@ -3607,37 +3607,37 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>25500</v>
+        <v>42059</v>
       </c>
       <c r="B85">
-        <v>255</v>
+        <v>210.295</v>
       </c>
       <c r="C85">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85">
         <v>255</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>5979.565804020096</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>77.32765225984878</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="H85">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="I85">
         <v>255</v>
       </c>
       <c r="J85">
-        <v>255</v>
+        <v>216.25</v>
       </c>
       <c r="K85">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L85">
         <v>255</v>
@@ -3645,37 +3645,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>25500</v>
+        <v>41790</v>
       </c>
       <c r="B86">
-        <v>255</v>
+        <v>208.95</v>
       </c>
       <c r="C86">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D86">
         <v>255</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>6067.97738693468</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>77.89722322993728</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="H86">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I86">
         <v>255</v>
       </c>
       <c r="J86">
-        <v>255</v>
+        <v>209.25</v>
       </c>
       <c r="K86">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L86">
         <v>255</v>
@@ -3683,37 +3683,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>25500</v>
+        <v>41607</v>
       </c>
       <c r="B87">
-        <v>255</v>
+        <v>208.035</v>
       </c>
       <c r="C87">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87">
         <v>255</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>6128.817864321602</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>78.28676685316364</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="H87">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="I87">
         <v>255</v>
       </c>
       <c r="J87">
-        <v>255</v>
+        <v>206.25</v>
       </c>
       <c r="K87">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L87">
         <v>255</v>
@@ -3721,37 +3721,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>25500</v>
+        <v>41297</v>
       </c>
       <c r="B88">
-        <v>255</v>
+        <v>206.485</v>
       </c>
       <c r="C88">
-        <v>255</v>
+        <v>252.5</v>
       </c>
       <c r="D88">
         <v>255</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>6236.080175879382</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>78.96885573363326</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H88">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I88">
         <v>255</v>
       </c>
       <c r="J88">
-        <v>255</v>
+        <v>196.25</v>
       </c>
       <c r="K88">
-        <v>255</v>
+        <v>252.5</v>
       </c>
       <c r="L88">
         <v>255</v>
@@ -3759,37 +3759,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>25500</v>
+        <v>41023</v>
       </c>
       <c r="B89">
-        <v>255</v>
+        <v>205.115</v>
       </c>
       <c r="C89">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D89">
         <v>255</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>6336.644999999982</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>79.6030464241161</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="H89">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="I89">
         <v>255</v>
       </c>
       <c r="J89">
-        <v>255</v>
+        <v>184.75</v>
       </c>
       <c r="K89">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L89">
         <v>255</v>
@@ -3797,37 +3797,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>25500</v>
+        <v>40954</v>
       </c>
       <c r="B90">
-        <v>255</v>
+        <v>204.77</v>
       </c>
       <c r="C90">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90">
         <v>255</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>6334.489547738694</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>79.58950651774826</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H90">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="I90">
         <v>255</v>
       </c>
       <c r="J90">
-        <v>255</v>
+        <v>182.75</v>
       </c>
       <c r="K90">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L90">
         <v>255</v>
@@ -3835,37 +3835,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>25500</v>
+        <v>40837</v>
       </c>
       <c r="B91">
-        <v>255</v>
+        <v>204.185</v>
       </c>
       <c r="C91">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D91">
         <v>255</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>6348.402788944715</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>79.67686482878651</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H91">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I91">
         <v>255</v>
       </c>
       <c r="J91">
-        <v>255</v>
+        <v>179.75</v>
       </c>
       <c r="K91">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L91">
         <v>255</v>
@@ -3873,37 +3873,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>25500</v>
+        <v>40670</v>
       </c>
       <c r="B92">
-        <v>255</v>
+        <v>203.35</v>
       </c>
       <c r="C92">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D92">
         <v>255</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>6355.364321608028</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>79.7205388943654</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H92">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I92">
         <v>255</v>
       </c>
       <c r="J92">
-        <v>255</v>
+        <v>177.25</v>
       </c>
       <c r="K92">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L92">
         <v>255</v>
@@ -3911,37 +3911,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>25500</v>
+        <v>40462</v>
       </c>
       <c r="B93">
-        <v>255</v>
+        <v>202.31</v>
       </c>
       <c r="C93">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D93">
         <v>255</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>6368.928542713586</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>79.80556711604514</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="H93">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="I93">
         <v>255</v>
       </c>
       <c r="J93">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="K93">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L93">
         <v>255</v>
@@ -3949,37 +3949,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>25500</v>
+        <v>40260</v>
       </c>
       <c r="B94">
-        <v>255</v>
+        <v>201.3</v>
       </c>
       <c r="C94">
-        <v>255</v>
+        <v>250.5</v>
       </c>
       <c r="D94">
         <v>255</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>6381.286432160791</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>79.88295457831283</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="H94">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I94">
         <v>255</v>
       </c>
       <c r="J94">
-        <v>255</v>
+        <v>170.25</v>
       </c>
       <c r="K94">
-        <v>255</v>
+        <v>250.5</v>
       </c>
       <c r="L94">
         <v>255</v>
@@ -3987,37 +3987,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>25500</v>
+        <v>40131</v>
       </c>
       <c r="B95">
-        <v>255</v>
+        <v>200.655</v>
       </c>
       <c r="C95">
-        <v>255</v>
+        <v>250.5</v>
       </c>
       <c r="D95">
         <v>255</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>6403.433140703501</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>80.02145425261591</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H95">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I95">
         <v>255</v>
       </c>
       <c r="J95">
-        <v>255</v>
+        <v>168.75</v>
       </c>
       <c r="K95">
-        <v>255</v>
+        <v>250.5</v>
       </c>
       <c r="L95">
         <v>255</v>
@@ -4025,37 +4025,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>25500</v>
+        <v>39999</v>
       </c>
       <c r="B96">
-        <v>255</v>
+        <v>199.995</v>
       </c>
       <c r="C96">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D96">
         <v>255</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>6431.552738693465</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>80.19696215377155</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H96">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I96">
         <v>255</v>
       </c>
       <c r="J96">
-        <v>255</v>
+        <v>166.5</v>
       </c>
       <c r="K96">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L96">
         <v>255</v>
@@ -4063,37 +4063,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>25500</v>
+        <v>39871</v>
       </c>
       <c r="B97">
-        <v>255</v>
+        <v>199.355</v>
       </c>
       <c r="C97">
-        <v>255</v>
+        <v>251.5</v>
       </c>
       <c r="D97">
         <v>255</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>6456.149723618111</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>80.35016940628135</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H97">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I97">
         <v>255</v>
       </c>
       <c r="J97">
-        <v>255</v>
+        <v>165.5</v>
       </c>
       <c r="K97">
-        <v>255</v>
+        <v>251.5</v>
       </c>
       <c r="L97">
         <v>255</v>
@@ -4101,37 +4101,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>25500</v>
+        <v>39733</v>
       </c>
       <c r="B98">
-        <v>255</v>
+        <v>198.665</v>
       </c>
       <c r="C98">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D98">
         <v>255</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>6449.731432160817</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>80.31021997330612</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H98">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I98">
         <v>255</v>
       </c>
       <c r="J98">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="K98">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L98">
         <v>255</v>
@@ -4139,37 +4139,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>25500</v>
+        <v>39602</v>
       </c>
       <c r="B99">
-        <v>255</v>
+        <v>198.01</v>
       </c>
       <c r="C99">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D99">
         <v>255</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>6489.004924623104</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>80.55436005967091</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="H99">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="I99">
         <v>255</v>
       </c>
       <c r="J99">
-        <v>255</v>
+        <v>162.75</v>
       </c>
       <c r="K99">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L99">
         <v>255</v>
@@ -4177,37 +4177,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>25500</v>
+        <v>39535</v>
       </c>
       <c r="B100">
-        <v>255</v>
+        <v>197.675</v>
       </c>
       <c r="C100">
-        <v>255</v>
+        <v>250.5</v>
       </c>
       <c r="D100">
         <v>255</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>6470.722989949728</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>80.44080425971465</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H100">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="I100">
         <v>255</v>
       </c>
       <c r="J100">
-        <v>255</v>
+        <v>159.75</v>
       </c>
       <c r="K100">
-        <v>255</v>
+        <v>250.5</v>
       </c>
       <c r="L100">
         <v>255</v>
@@ -4215,39 +4215,3839 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>25500</v>
+        <v>39491</v>
       </c>
       <c r="B101">
-        <v>255</v>
+        <v>197.455</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D101">
         <v>255</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>6395.756758793994</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>79.97347534522928</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="H101">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="I101">
         <v>255</v>
       </c>
       <c r="J101">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="K101">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L101">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>39412</v>
+      </c>
+      <c r="B102">
+        <v>197.06</v>
+      </c>
+      <c r="C102">
+        <v>250</v>
+      </c>
+      <c r="D102">
+        <v>255</v>
+      </c>
+      <c r="E102">
+        <v>6294.317989949745</v>
+      </c>
+      <c r="F102">
+        <v>79.33673795884063</v>
+      </c>
+      <c r="G102">
+        <v>225</v>
+      </c>
+      <c r="H102">
+        <v>30</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>156.75</v>
+      </c>
+      <c r="K102">
+        <v>250</v>
+      </c>
+      <c r="L102">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>39437</v>
+      </c>
+      <c r="B103">
+        <v>197.185</v>
+      </c>
+      <c r="C103">
+        <v>248</v>
+      </c>
+      <c r="D103">
+        <v>255</v>
+      </c>
+      <c r="E103">
+        <v>6121.709321608058</v>
+      </c>
+      <c r="F103">
+        <v>78.24135301493742</v>
+      </c>
+      <c r="G103">
+        <v>222</v>
+      </c>
+      <c r="H103">
+        <v>33</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>152</v>
+      </c>
+      <c r="K103">
+        <v>248</v>
+      </c>
+      <c r="L103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>39489</v>
+      </c>
+      <c r="B104">
+        <v>197.445</v>
+      </c>
+      <c r="C104">
+        <v>248</v>
+      </c>
+      <c r="D104">
+        <v>255</v>
+      </c>
+      <c r="E104">
+        <v>5987.393944723606</v>
+      </c>
+      <c r="F104">
+        <v>77.37825240158637</v>
+      </c>
+      <c r="G104">
+        <v>214</v>
+      </c>
+      <c r="H104">
+        <v>41</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>148.5</v>
+      </c>
+      <c r="K104">
+        <v>248</v>
+      </c>
+      <c r="L104">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>39581</v>
+      </c>
+      <c r="B105">
+        <v>197.905</v>
+      </c>
+      <c r="C105">
+        <v>251</v>
+      </c>
+      <c r="D105">
+        <v>255</v>
+      </c>
+      <c r="E105">
+        <v>5887.704497487455</v>
+      </c>
+      <c r="F105">
+        <v>76.73137883217957</v>
+      </c>
+      <c r="G105">
+        <v>204</v>
+      </c>
+      <c r="H105">
+        <v>51</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>144</v>
+      </c>
+      <c r="K105">
+        <v>251</v>
+      </c>
+      <c r="L105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>39686</v>
+      </c>
+      <c r="B106">
+        <v>198.43</v>
+      </c>
+      <c r="C106">
+        <v>250.5</v>
+      </c>
+      <c r="D106">
+        <v>255</v>
+      </c>
+      <c r="E106">
+        <v>5749.613165829139</v>
+      </c>
+      <c r="F106">
+        <v>75.82620368862692</v>
+      </c>
+      <c r="G106">
+        <v>201</v>
+      </c>
+      <c r="H106">
+        <v>54</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>139.25</v>
+      </c>
+      <c r="K106">
+        <v>250.5</v>
+      </c>
+      <c r="L106">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>39766</v>
+      </c>
+      <c r="B107">
+        <v>198.83</v>
+      </c>
+      <c r="C107">
+        <v>250</v>
+      </c>
+      <c r="D107">
+        <v>255</v>
+      </c>
+      <c r="E107">
+        <v>5607.820201005031</v>
+      </c>
+      <c r="F107">
+        <v>74.88538042238305</v>
+      </c>
+      <c r="G107">
+        <v>196</v>
+      </c>
+      <c r="H107">
+        <v>59</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>138.75</v>
+      </c>
+      <c r="K107">
+        <v>250</v>
+      </c>
+      <c r="L107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>39853</v>
+      </c>
+      <c r="B108">
+        <v>199.265</v>
+      </c>
+      <c r="C108">
+        <v>249</v>
+      </c>
+      <c r="D108">
+        <v>255</v>
+      </c>
+      <c r="E108">
+        <v>5467.944497487434</v>
+      </c>
+      <c r="F108">
+        <v>73.94555089717997</v>
+      </c>
+      <c r="G108">
+        <v>194</v>
+      </c>
+      <c r="H108">
+        <v>61</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>138</v>
+      </c>
+      <c r="K108">
+        <v>249</v>
+      </c>
+      <c r="L108">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>39960</v>
+      </c>
+      <c r="B109">
+        <v>199.8</v>
+      </c>
+      <c r="C109">
+        <v>249</v>
+      </c>
+      <c r="D109">
+        <v>255</v>
+      </c>
+      <c r="E109">
+        <v>5341.417085427142</v>
+      </c>
+      <c r="F109">
+        <v>73.08499904513334</v>
+      </c>
+      <c r="G109">
+        <v>192</v>
+      </c>
+      <c r="H109">
+        <v>63</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>140.25</v>
+      </c>
+      <c r="K109">
+        <v>249</v>
+      </c>
+      <c r="L109">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>40215</v>
+      </c>
+      <c r="B110">
+        <v>201.075</v>
+      </c>
+      <c r="C110">
+        <v>251</v>
+      </c>
+      <c r="D110">
+        <v>255</v>
+      </c>
+      <c r="E110">
+        <v>5178.119974874369</v>
+      </c>
+      <c r="F110">
+        <v>71.95915490661608</v>
+      </c>
+      <c r="G110">
+        <v>194</v>
+      </c>
+      <c r="H110">
+        <v>61</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>147</v>
+      </c>
+      <c r="K110">
+        <v>251</v>
+      </c>
+      <c r="L110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>40333</v>
+      </c>
+      <c r="B111">
+        <v>201.665</v>
+      </c>
+      <c r="C111">
+        <v>252</v>
+      </c>
+      <c r="D111">
+        <v>255</v>
+      </c>
+      <c r="E111">
+        <v>5088.093241206043</v>
+      </c>
+      <c r="F111">
+        <v>71.33087158591323</v>
+      </c>
+      <c r="G111">
+        <v>194</v>
+      </c>
+      <c r="H111">
+        <v>61</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>147</v>
+      </c>
+      <c r="K111">
+        <v>252</v>
+      </c>
+      <c r="L111">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>40358</v>
+      </c>
+      <c r="B112">
+        <v>201.79</v>
+      </c>
+      <c r="C112">
+        <v>251.5</v>
+      </c>
+      <c r="D112">
+        <v>255</v>
+      </c>
+      <c r="E112">
+        <v>5036.498391959791</v>
+      </c>
+      <c r="F112">
+        <v>70.96829145442203</v>
+      </c>
+      <c r="G112">
+        <v>193</v>
+      </c>
+      <c r="H112">
+        <v>62</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>145</v>
+      </c>
+      <c r="K112">
+        <v>251.5</v>
+      </c>
+      <c r="L112">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>40332</v>
+      </c>
+      <c r="B113">
+        <v>201.66</v>
+      </c>
+      <c r="C113">
+        <v>250</v>
+      </c>
+      <c r="D113">
+        <v>255</v>
+      </c>
+      <c r="E113">
+        <v>4990.275778894484</v>
+      </c>
+      <c r="F113">
+        <v>70.64188402707337</v>
+      </c>
+      <c r="G113">
+        <v>190</v>
+      </c>
+      <c r="H113">
+        <v>65</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>142</v>
+      </c>
+      <c r="K113">
+        <v>250</v>
+      </c>
+      <c r="L113">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>40336</v>
+      </c>
+      <c r="B114">
+        <v>201.68</v>
+      </c>
+      <c r="C114">
+        <v>250</v>
+      </c>
+      <c r="D114">
+        <v>255</v>
+      </c>
+      <c r="E114">
+        <v>4915.474974874373</v>
+      </c>
+      <c r="F114">
+        <v>70.1104484001805</v>
+      </c>
+      <c r="G114">
+        <v>186</v>
+      </c>
+      <c r="H114">
+        <v>69</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>141</v>
+      </c>
+      <c r="K114">
+        <v>250</v>
+      </c>
+      <c r="L114">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>40370</v>
+      </c>
+      <c r="B115">
+        <v>201.85</v>
+      </c>
+      <c r="C115">
+        <v>250</v>
+      </c>
+      <c r="D115">
+        <v>255</v>
+      </c>
+      <c r="E115">
+        <v>4858.268844221109</v>
+      </c>
+      <c r="F115">
+        <v>69.70128294530244</v>
+      </c>
+      <c r="G115">
+        <v>183</v>
+      </c>
+      <c r="H115">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>140</v>
+      </c>
+      <c r="K115">
+        <v>250</v>
+      </c>
+      <c r="L115">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>40444</v>
+      </c>
+      <c r="B116">
+        <v>202.22</v>
+      </c>
+      <c r="C116">
+        <v>250</v>
+      </c>
+      <c r="D116">
+        <v>255</v>
+      </c>
+      <c r="E116">
+        <v>4793.669949748748</v>
+      </c>
+      <c r="F116">
+        <v>69.23633402880851</v>
+      </c>
+      <c r="G116">
+        <v>182</v>
+      </c>
+      <c r="H116">
+        <v>73</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>140</v>
+      </c>
+      <c r="K116">
+        <v>250</v>
+      </c>
+      <c r="L116">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>40508</v>
+      </c>
+      <c r="B117">
+        <v>202.54</v>
+      </c>
+      <c r="C117">
+        <v>250</v>
+      </c>
+      <c r="D117">
+        <v>255</v>
+      </c>
+      <c r="E117">
+        <v>4728.390351758794</v>
+      </c>
+      <c r="F117">
+        <v>68.76329218237586</v>
+      </c>
+      <c r="G117">
+        <v>182</v>
+      </c>
+      <c r="H117">
+        <v>73</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>140.75</v>
+      </c>
+      <c r="K117">
+        <v>250</v>
+      </c>
+      <c r="L117">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>40553</v>
+      </c>
+      <c r="B118">
+        <v>202.765</v>
+      </c>
+      <c r="C118">
+        <v>250</v>
+      </c>
+      <c r="D118">
+        <v>255</v>
+      </c>
+      <c r="E118">
+        <v>4675.688216080393</v>
+      </c>
+      <c r="F118">
+        <v>68.37900420509496</v>
+      </c>
+      <c r="G118">
+        <v>182</v>
+      </c>
+      <c r="H118">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>140</v>
+      </c>
+      <c r="K118">
+        <v>250</v>
+      </c>
+      <c r="L118">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>40577</v>
+      </c>
+      <c r="B119">
+        <v>202.885</v>
+      </c>
+      <c r="C119">
+        <v>250</v>
+      </c>
+      <c r="D119">
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>4631.057060301501</v>
+      </c>
+      <c r="F119">
+        <v>68.05187036593117</v>
+      </c>
+      <c r="G119">
+        <v>182</v>
+      </c>
+      <c r="H119">
+        <v>73</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>139.75</v>
+      </c>
+      <c r="K119">
+        <v>250</v>
+      </c>
+      <c r="L119">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>40602</v>
+      </c>
+      <c r="B120">
+        <v>203.01</v>
+      </c>
+      <c r="C120">
+        <v>251.5</v>
+      </c>
+      <c r="D120">
+        <v>255</v>
+      </c>
+      <c r="E120">
+        <v>4561.768743718594</v>
+      </c>
+      <c r="F120">
+        <v>67.54086721177478</v>
+      </c>
+      <c r="G120">
+        <v>183</v>
+      </c>
+      <c r="H120">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>138</v>
+      </c>
+      <c r="K120">
+        <v>251.5</v>
+      </c>
+      <c r="L120">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>40590</v>
+      </c>
+      <c r="B121">
+        <v>202.95</v>
+      </c>
+      <c r="C121">
+        <v>251</v>
+      </c>
+      <c r="D121">
+        <v>255</v>
+      </c>
+      <c r="E121">
+        <v>4472.329145728639</v>
+      </c>
+      <c r="F121">
+        <v>66.87547491964926</v>
+      </c>
+      <c r="G121">
+        <v>191</v>
+      </c>
+      <c r="H121">
+        <v>64</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>137</v>
+      </c>
+      <c r="K121">
+        <v>251</v>
+      </c>
+      <c r="L121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>40684</v>
+      </c>
+      <c r="B122">
+        <v>203.42</v>
+      </c>
+      <c r="C122">
+        <v>253</v>
+      </c>
+      <c r="D122">
+        <v>255</v>
+      </c>
+      <c r="E122">
+        <v>4441.330251256267</v>
+      </c>
+      <c r="F122">
+        <v>66.6433061248935</v>
+      </c>
+      <c r="G122">
+        <v>193</v>
+      </c>
+      <c r="H122">
+        <v>62</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>138.75</v>
+      </c>
+      <c r="K122">
+        <v>253</v>
+      </c>
+      <c r="L122">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>40789</v>
+      </c>
+      <c r="B123">
+        <v>203.945</v>
+      </c>
+      <c r="C123">
+        <v>252</v>
+      </c>
+      <c r="D123">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>4365.479371859289</v>
+      </c>
+      <c r="F123">
+        <v>66.07177439617683</v>
+      </c>
+      <c r="G123">
+        <v>193</v>
+      </c>
+      <c r="H123">
+        <v>62</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>141</v>
+      </c>
+      <c r="K123">
+        <v>252</v>
+      </c>
+      <c r="L123">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>40890</v>
+      </c>
+      <c r="B124">
+        <v>204.45</v>
+      </c>
+      <c r="C124">
+        <v>252.5</v>
+      </c>
+      <c r="D124">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>4251.665829145724</v>
+      </c>
+      <c r="F124">
+        <v>65.20479912664193</v>
+      </c>
+      <c r="G124">
+        <v>190</v>
+      </c>
+      <c r="H124">
+        <v>65</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>143.75</v>
+      </c>
+      <c r="K124">
+        <v>252.5</v>
+      </c>
+      <c r="L124">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>41005</v>
+      </c>
+      <c r="B125">
+        <v>205.025</v>
+      </c>
+      <c r="C125">
+        <v>253</v>
+      </c>
+      <c r="D125">
+        <v>255</v>
+      </c>
+      <c r="E125">
+        <v>4131.913944723618</v>
+      </c>
+      <c r="F125">
+        <v>64.27996534476056</v>
+      </c>
+      <c r="G125">
+        <v>189</v>
+      </c>
+      <c r="H125">
+        <v>66</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>146.75</v>
+      </c>
+      <c r="K125">
+        <v>253</v>
+      </c>
+      <c r="L125">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>41145</v>
+      </c>
+      <c r="B126">
+        <v>205.725</v>
+      </c>
+      <c r="C126">
+        <v>252</v>
+      </c>
+      <c r="D126">
+        <v>255</v>
+      </c>
+      <c r="E126">
+        <v>4049.587311557794</v>
+      </c>
+      <c r="F126">
+        <v>63.63636783756434</v>
+      </c>
+      <c r="G126">
+        <v>193</v>
+      </c>
+      <c r="H126">
+        <v>62</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>150</v>
+      </c>
+      <c r="K126">
+        <v>252</v>
+      </c>
+      <c r="L126">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>41272</v>
+      </c>
+      <c r="B127">
+        <v>206.36</v>
+      </c>
+      <c r="C127">
+        <v>251</v>
+      </c>
+      <c r="D127">
+        <v>255</v>
+      </c>
+      <c r="E127">
+        <v>4000.935075376877</v>
+      </c>
+      <c r="F127">
+        <v>63.25294519132589</v>
+      </c>
+      <c r="G127">
+        <v>198</v>
+      </c>
+      <c r="H127">
+        <v>57</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>153</v>
+      </c>
+      <c r="K127">
+        <v>251</v>
+      </c>
+      <c r="L127">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>41371</v>
+      </c>
+      <c r="B128">
+        <v>206.855</v>
+      </c>
+      <c r="C128">
+        <v>250.5</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>3971.903492462297</v>
+      </c>
+      <c r="F128">
+        <v>63.02303937816944</v>
+      </c>
+      <c r="G128">
+        <v>204</v>
+      </c>
+      <c r="H128">
+        <v>51</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>153</v>
+      </c>
+      <c r="K128">
+        <v>250.5</v>
+      </c>
+      <c r="L128">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>41458</v>
+      </c>
+      <c r="B129">
+        <v>207.29</v>
+      </c>
+      <c r="C129">
+        <v>252</v>
+      </c>
+      <c r="D129">
+        <v>255</v>
+      </c>
+      <c r="E129">
+        <v>3915.272261306536</v>
+      </c>
+      <c r="F129">
+        <v>62.57213646110012</v>
+      </c>
+      <c r="G129">
+        <v>207</v>
+      </c>
+      <c r="H129">
+        <v>48</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>154.75</v>
+      </c>
+      <c r="K129">
+        <v>252</v>
+      </c>
+      <c r="L129">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>41537</v>
+      </c>
+      <c r="B130">
+        <v>207.685</v>
+      </c>
+      <c r="C130">
+        <v>251.5</v>
+      </c>
+      <c r="D130">
+        <v>255</v>
+      </c>
+      <c r="E130">
+        <v>3874.900276381908</v>
+      </c>
+      <c r="F130">
+        <v>62.24869698541414</v>
+      </c>
+      <c r="G130">
+        <v>211</v>
+      </c>
+      <c r="H130">
+        <v>44</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>155</v>
+      </c>
+      <c r="K130">
+        <v>251.5</v>
+      </c>
+      <c r="L130">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>41610</v>
+      </c>
+      <c r="B131">
+        <v>208.05</v>
+      </c>
+      <c r="C131">
+        <v>251.5</v>
+      </c>
+      <c r="D131">
+        <v>255</v>
+      </c>
+      <c r="E131">
+        <v>3886.097989949741</v>
+      </c>
+      <c r="F131">
+        <v>62.33857545653206</v>
+      </c>
+      <c r="G131">
+        <v>219</v>
+      </c>
+      <c r="H131">
+        <v>36</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>158</v>
+      </c>
+      <c r="K131">
+        <v>251.5</v>
+      </c>
+      <c r="L131">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>41688</v>
+      </c>
+      <c r="B132">
+        <v>208.44</v>
+      </c>
+      <c r="C132">
+        <v>253</v>
+      </c>
+      <c r="D132">
+        <v>255</v>
+      </c>
+      <c r="E132">
+        <v>3990.177286432163</v>
+      </c>
+      <c r="F132">
+        <v>63.16785010139385</v>
+      </c>
+      <c r="G132">
+        <v>231</v>
+      </c>
+      <c r="H132">
+        <v>24</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>161</v>
+      </c>
+      <c r="K132">
+        <v>253</v>
+      </c>
+      <c r="L132">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>41822</v>
+      </c>
+      <c r="B133">
+        <v>209.11</v>
+      </c>
+      <c r="C133">
+        <v>253</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
+      </c>
+      <c r="E133">
+        <v>3911.435075376896</v>
+      </c>
+      <c r="F133">
+        <v>62.54146684701995</v>
+      </c>
+      <c r="G133">
+        <v>211</v>
+      </c>
+      <c r="H133">
+        <v>44</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>162.75</v>
+      </c>
+      <c r="K133">
+        <v>253</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>41961</v>
+      </c>
+      <c r="B134">
+        <v>209.805</v>
+      </c>
+      <c r="C134">
+        <v>253.5</v>
+      </c>
+      <c r="D134">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>3826.157763819085</v>
+      </c>
+      <c r="F134">
+        <v>61.85594364181251</v>
+      </c>
+      <c r="G134">
+        <v>216</v>
+      </c>
+      <c r="H134">
+        <v>39</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>163.75</v>
+      </c>
+      <c r="K134">
+        <v>253.5</v>
+      </c>
+      <c r="L134">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>42090</v>
+      </c>
+      <c r="B135">
+        <v>210.45</v>
+      </c>
+      <c r="C135">
+        <v>254</v>
+      </c>
+      <c r="D135">
+        <v>255</v>
+      </c>
+      <c r="E135">
+        <v>3789.424623115576</v>
+      </c>
+      <c r="F135">
+        <v>61.55830263348378</v>
+      </c>
+      <c r="G135">
+        <v>218</v>
+      </c>
+      <c r="H135">
+        <v>37</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>164</v>
+      </c>
+      <c r="K135">
+        <v>254</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>42212</v>
+      </c>
+      <c r="B136">
+        <v>211.06</v>
+      </c>
+      <c r="C136">
+        <v>254</v>
+      </c>
+      <c r="D136">
+        <v>255</v>
+      </c>
+      <c r="E136">
+        <v>3808.97125628141</v>
+      </c>
+      <c r="F136">
+        <v>61.71686362965482</v>
+      </c>
+      <c r="G136">
+        <v>227</v>
+      </c>
+      <c r="H136">
+        <v>28</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>164</v>
+      </c>
+      <c r="K136">
+        <v>254</v>
+      </c>
+      <c r="L136">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>42276</v>
+      </c>
+      <c r="B137">
+        <v>211.38</v>
+      </c>
+      <c r="C137">
+        <v>254</v>
+      </c>
+      <c r="D137">
+        <v>255</v>
+      </c>
+      <c r="E137">
+        <v>3858.116180904532</v>
+      </c>
+      <c r="F137">
+        <v>62.11373584727078</v>
+      </c>
+      <c r="G137">
+        <v>228</v>
+      </c>
+      <c r="H137">
+        <v>27</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>164</v>
+      </c>
+      <c r="K137">
+        <v>254</v>
+      </c>
+      <c r="L137">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>42351</v>
+      </c>
+      <c r="B138">
+        <v>211.755</v>
+      </c>
+      <c r="C138">
+        <v>254</v>
+      </c>
+      <c r="D138">
+        <v>255</v>
+      </c>
+      <c r="E138">
+        <v>3894.467311557779</v>
+      </c>
+      <c r="F138">
+        <v>62.40566730320075</v>
+      </c>
+      <c r="G138">
+        <v>228</v>
+      </c>
+      <c r="H138">
+        <v>27</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>166</v>
+      </c>
+      <c r="K138">
+        <v>254</v>
+      </c>
+      <c r="L138">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>42439</v>
+      </c>
+      <c r="B139">
+        <v>212.195</v>
+      </c>
+      <c r="C139">
+        <v>255</v>
+      </c>
+      <c r="D139">
+        <v>255</v>
+      </c>
+      <c r="E139">
+        <v>3944.90148241206</v>
+      </c>
+      <c r="F139">
+        <v>62.80845072450092</v>
+      </c>
+      <c r="G139">
+        <v>222</v>
+      </c>
+      <c r="H139">
+        <v>33</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>169.5</v>
+      </c>
+      <c r="K139">
+        <v>255</v>
+      </c>
+      <c r="L139">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>42538</v>
+      </c>
+      <c r="B140">
+        <v>212.69</v>
+      </c>
+      <c r="C140">
+        <v>255</v>
+      </c>
+      <c r="D140">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>3991.360703517587</v>
+      </c>
+      <c r="F140">
+        <v>63.17721664902298</v>
+      </c>
+      <c r="G140">
+        <v>230</v>
+      </c>
+      <c r="H140">
+        <v>25</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>172.5</v>
+      </c>
+      <c r="K140">
+        <v>255</v>
+      </c>
+      <c r="L140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>42697</v>
+      </c>
+      <c r="B141">
+        <v>213.485</v>
+      </c>
+      <c r="C141">
+        <v>255</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>4030.572638190946</v>
+      </c>
+      <c r="F141">
+        <v>63.48679105287135</v>
+      </c>
+      <c r="G141">
+        <v>237</v>
+      </c>
+      <c r="H141">
+        <v>18</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>173</v>
+      </c>
+      <c r="K141">
+        <v>255</v>
+      </c>
+      <c r="L141">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>42820</v>
+      </c>
+      <c r="B142">
+        <v>214.1</v>
+      </c>
+      <c r="C142">
+        <v>255</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>4044.321608040218</v>
+      </c>
+      <c r="F142">
+        <v>63.59498099724708</v>
+      </c>
+      <c r="G142">
+        <v>239</v>
+      </c>
+      <c r="H142">
+        <v>16</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>173</v>
+      </c>
+      <c r="K142">
+        <v>255</v>
+      </c>
+      <c r="L142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>42938</v>
+      </c>
+      <c r="B143">
+        <v>214.69</v>
+      </c>
+      <c r="C143">
+        <v>255</v>
+      </c>
+      <c r="D143">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>4055.702412060306</v>
+      </c>
+      <c r="F143">
+        <v>63.68439692782139</v>
+      </c>
+      <c r="G143">
+        <v>230</v>
+      </c>
+      <c r="H143">
+        <v>25</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>176.5</v>
+      </c>
+      <c r="K143">
+        <v>255</v>
+      </c>
+      <c r="L143">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>43079</v>
+      </c>
+      <c r="B144">
+        <v>215.395</v>
+      </c>
+      <c r="C144">
+        <v>255</v>
+      </c>
+      <c r="D144">
+        <v>255</v>
+      </c>
+      <c r="E144">
+        <v>4001.627110552777</v>
+      </c>
+      <c r="F144">
+        <v>63.25841533387298</v>
+      </c>
+      <c r="G144">
+        <v>238</v>
+      </c>
+      <c r="H144">
+        <v>17</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>176.75</v>
+      </c>
+      <c r="K144">
+        <v>255</v>
+      </c>
+      <c r="L144">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>43126</v>
+      </c>
+      <c r="B145">
+        <v>215.63</v>
+      </c>
+      <c r="C145">
+        <v>255</v>
+      </c>
+      <c r="D145">
+        <v>255</v>
+      </c>
+      <c r="E145">
+        <v>4088.977989949758</v>
+      </c>
+      <c r="F145">
+        <v>63.94511701412202</v>
+      </c>
+      <c r="G145">
+        <v>234</v>
+      </c>
+      <c r="H145">
+        <v>21</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>180.75</v>
+      </c>
+      <c r="K145">
+        <v>255</v>
+      </c>
+      <c r="L145">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>43137</v>
+      </c>
+      <c r="B146">
+        <v>215.685</v>
+      </c>
+      <c r="C146">
+        <v>255</v>
+      </c>
+      <c r="D146">
+        <v>255</v>
+      </c>
+      <c r="E146">
+        <v>4217.121381909536</v>
+      </c>
+      <c r="F146">
+        <v>64.9393669657284</v>
+      </c>
+      <c r="G146">
+        <v>242</v>
+      </c>
+      <c r="H146">
+        <v>13</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>182.75</v>
+      </c>
+      <c r="K146">
+        <v>255</v>
+      </c>
+      <c r="L146">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>43128</v>
+      </c>
+      <c r="B147">
+        <v>215.64</v>
+      </c>
+      <c r="C147">
+        <v>255</v>
+      </c>
+      <c r="D147">
+        <v>255</v>
+      </c>
+      <c r="E147">
+        <v>4398.945125628123</v>
+      </c>
+      <c r="F147">
+        <v>66.32454391571888</v>
+      </c>
+      <c r="G147">
+        <v>247</v>
+      </c>
+      <c r="H147">
+        <v>8</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>187.5</v>
+      </c>
+      <c r="K147">
+        <v>255</v>
+      </c>
+      <c r="L147">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>43102</v>
+      </c>
+      <c r="B148">
+        <v>215.51</v>
+      </c>
+      <c r="C148">
+        <v>255</v>
+      </c>
+      <c r="D148">
+        <v>255</v>
+      </c>
+      <c r="E148">
+        <v>4548.361708542723</v>
+      </c>
+      <c r="F148">
+        <v>67.44154289859273</v>
+      </c>
+      <c r="G148">
+        <v>249</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>194</v>
+      </c>
+      <c r="K148">
+        <v>255</v>
+      </c>
+      <c r="L148">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>43060</v>
+      </c>
+      <c r="B149">
+        <v>215.3</v>
+      </c>
+      <c r="C149">
+        <v>255</v>
+      </c>
+      <c r="D149">
+        <v>255</v>
+      </c>
+      <c r="E149">
+        <v>4682.924623115566</v>
+      </c>
+      <c r="F149">
+        <v>68.4318977021357</v>
+      </c>
+      <c r="G149">
+        <v>245</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>197</v>
+      </c>
+      <c r="K149">
+        <v>255</v>
+      </c>
+      <c r="L149">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>43092</v>
+      </c>
+      <c r="B150">
+        <v>215.46</v>
+      </c>
+      <c r="C150">
+        <v>255</v>
+      </c>
+      <c r="D150">
+        <v>255</v>
+      </c>
+      <c r="E150">
+        <v>4781.435577889446</v>
+      </c>
+      <c r="F150">
+        <v>69.14792533322635</v>
+      </c>
+      <c r="G150">
+        <v>250</v>
+      </c>
+      <c r="H150">
+        <v>5</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>202</v>
+      </c>
+      <c r="K150">
+        <v>255</v>
+      </c>
+      <c r="L150">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>43188</v>
+      </c>
+      <c r="B151">
+        <v>215.94</v>
+      </c>
+      <c r="C151">
+        <v>255</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <v>4843.122010050245</v>
+      </c>
+      <c r="F151">
+        <v>69.59254277614984</v>
+      </c>
+      <c r="G151">
+        <v>245</v>
+      </c>
+      <c r="H151">
+        <v>10</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>213.75</v>
+      </c>
+      <c r="K151">
+        <v>255</v>
+      </c>
+      <c r="L151">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>43401</v>
+      </c>
+      <c r="B152">
+        <v>217.005</v>
+      </c>
+      <c r="C152">
+        <v>255</v>
+      </c>
+      <c r="D152">
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <v>4745.180879396973</v>
+      </c>
+      <c r="F152">
+        <v>68.88527331292933</v>
+      </c>
+      <c r="G152">
+        <v>246</v>
+      </c>
+      <c r="H152">
+        <v>9</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>225.5</v>
+      </c>
+      <c r="K152">
+        <v>255</v>
+      </c>
+      <c r="L152">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>43306</v>
+      </c>
+      <c r="B153">
+        <v>216.53</v>
+      </c>
+      <c r="C153">
+        <v>255</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <v>5104.149849246243</v>
+      </c>
+      <c r="F153">
+        <v>71.44333313365387</v>
+      </c>
+      <c r="G153">
+        <v>250</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>222</v>
+      </c>
+      <c r="K153">
+        <v>255</v>
+      </c>
+      <c r="L153">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>43112</v>
+      </c>
+      <c r="B154">
+        <v>215.56</v>
+      </c>
+      <c r="C154">
+        <v>255</v>
+      </c>
+      <c r="D154">
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <v>5459.694874371842</v>
+      </c>
+      <c r="F154">
+        <v>73.88974810061164</v>
+      </c>
+      <c r="G154">
+        <v>244</v>
+      </c>
+      <c r="H154">
+        <v>11</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>221</v>
+      </c>
+      <c r="K154">
+        <v>255</v>
+      </c>
+      <c r="L154">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>42977</v>
+      </c>
+      <c r="B155">
+        <v>214.885</v>
+      </c>
+      <c r="C155">
+        <v>255</v>
+      </c>
+      <c r="D155">
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <v>5855.62992462314</v>
+      </c>
+      <c r="F155">
+        <v>76.52208782190368</v>
+      </c>
+      <c r="G155">
+        <v>238</v>
+      </c>
+      <c r="H155">
+        <v>17</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>246</v>
+      </c>
+      <c r="K155">
+        <v>255</v>
+      </c>
+      <c r="L155">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>43575</v>
+      </c>
+      <c r="B156">
+        <v>217.875</v>
+      </c>
+      <c r="C156">
+        <v>255</v>
+      </c>
+      <c r="D156">
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <v>5547.225502512563</v>
+      </c>
+      <c r="F156">
+        <v>74.47969859305664</v>
+      </c>
+      <c r="G156">
+        <v>246</v>
+      </c>
+      <c r="H156">
+        <v>9</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>246.75</v>
+      </c>
+      <c r="K156">
+        <v>255</v>
+      </c>
+      <c r="L156">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>46578</v>
+      </c>
+      <c r="B157">
+        <v>232.89</v>
+      </c>
+      <c r="C157">
+        <v>255</v>
+      </c>
+      <c r="D157">
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <v>2499.364723618096</v>
+      </c>
+      <c r="F157">
+        <v>49.99364683255359</v>
+      </c>
+      <c r="G157">
+        <v>209</v>
+      </c>
+      <c r="H157">
+        <v>46</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>249</v>
+      </c>
+      <c r="K157">
+        <v>255</v>
+      </c>
+      <c r="L157">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>49325</v>
+      </c>
+      <c r="B158">
+        <v>246.625</v>
+      </c>
+      <c r="C158">
+        <v>255</v>
+      </c>
+      <c r="D158">
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <v>698.2556532663317</v>
+      </c>
+      <c r="F158">
+        <v>26.42452749371938</v>
+      </c>
+      <c r="G158">
+        <v>132</v>
+      </c>
+      <c r="H158">
+        <v>123</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>252.75</v>
+      </c>
+      <c r="K158">
+        <v>255</v>
+      </c>
+      <c r="L158">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>50634</v>
+      </c>
+      <c r="B159">
+        <v>253.17</v>
+      </c>
+      <c r="C159">
+        <v>255</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <v>15.57899497487434</v>
+      </c>
+      <c r="F159">
+        <v>3.947023558945948</v>
+      </c>
+      <c r="G159">
+        <v>24</v>
+      </c>
+      <c r="H159">
+        <v>231</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>253</v>
+      </c>
+      <c r="K159">
+        <v>255</v>
+      </c>
+      <c r="L159">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>50753</v>
+      </c>
+      <c r="B160">
+        <v>253.765</v>
+      </c>
+      <c r="C160">
+        <v>255</v>
+      </c>
+      <c r="D160">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>5.406809045226127</v>
+      </c>
+      <c r="F160">
+        <v>2.3252546194398</v>
+      </c>
+      <c r="G160">
+        <v>12</v>
+      </c>
+      <c r="H160">
+        <v>243</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>253</v>
+      </c>
+      <c r="K160">
+        <v>255</v>
+      </c>
+      <c r="L160">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>50820</v>
+      </c>
+      <c r="B161">
+        <v>254.1</v>
+      </c>
+      <c r="C161">
+        <v>255</v>
+      </c>
+      <c r="D161">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>3.175879396984942</v>
+      </c>
+      <c r="F161">
+        <v>1.782099715780501</v>
+      </c>
+      <c r="G161">
+        <v>11</v>
+      </c>
+      <c r="H161">
+        <v>244</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>253.75</v>
+      </c>
+      <c r="K161">
+        <v>255</v>
+      </c>
+      <c r="L161">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>50832</v>
+      </c>
+      <c r="B162">
+        <v>254.16</v>
+      </c>
+      <c r="C162">
+        <v>255</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="E162">
+        <v>3.883819095477386</v>
+      </c>
+      <c r="F162">
+        <v>1.970740747911147</v>
+      </c>
+      <c r="G162">
+        <v>15</v>
+      </c>
+      <c r="H162">
+        <v>240</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>254</v>
+      </c>
+      <c r="K162">
+        <v>255</v>
+      </c>
+      <c r="L162">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>50787</v>
+      </c>
+      <c r="B163">
+        <v>253.935</v>
+      </c>
+      <c r="C163">
+        <v>255</v>
+      </c>
+      <c r="D163">
+        <v>255</v>
+      </c>
+      <c r="E163">
+        <v>5.508316582914584</v>
+      </c>
+      <c r="F163">
+        <v>2.3469803115737</v>
+      </c>
+      <c r="G163">
+        <v>10</v>
+      </c>
+      <c r="H163">
+        <v>245</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>255</v>
+      </c>
+      <c r="K163">
+        <v>255</v>
+      </c>
+      <c r="L163">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>50950</v>
+      </c>
+      <c r="B164">
+        <v>254.75</v>
+      </c>
+      <c r="C164">
+        <v>255</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="E164">
+        <v>0.3391959798994975</v>
+      </c>
+      <c r="F164">
+        <v>0.5824053398617646</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>253</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>255</v>
+      </c>
+      <c r="K164">
+        <v>255</v>
+      </c>
+      <c r="L164">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>51000</v>
+      </c>
+      <c r="B165">
+        <v>255</v>
+      </c>
+      <c r="C165">
+        <v>255</v>
+      </c>
+      <c r="D165">
+        <v>255</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>255</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>255</v>
+      </c>
+      <c r="K165">
+        <v>255</v>
+      </c>
+      <c r="L165">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>51000</v>
+      </c>
+      <c r="B166">
+        <v>255</v>
+      </c>
+      <c r="C166">
+        <v>255</v>
+      </c>
+      <c r="D166">
+        <v>255</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>255</v>
+      </c>
+      <c r="I166">
+        <v>255</v>
+      </c>
+      <c r="J166">
+        <v>255</v>
+      </c>
+      <c r="K166">
+        <v>255</v>
+      </c>
+      <c r="L166">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>51000</v>
+      </c>
+      <c r="B167">
+        <v>255</v>
+      </c>
+      <c r="C167">
+        <v>255</v>
+      </c>
+      <c r="D167">
+        <v>255</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>255</v>
+      </c>
+      <c r="I167">
+        <v>255</v>
+      </c>
+      <c r="J167">
+        <v>255</v>
+      </c>
+      <c r="K167">
+        <v>255</v>
+      </c>
+      <c r="L167">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>51000</v>
+      </c>
+      <c r="B168">
+        <v>255</v>
+      </c>
+      <c r="C168">
+        <v>255</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>255</v>
+      </c>
+      <c r="I168">
+        <v>255</v>
+      </c>
+      <c r="J168">
+        <v>255</v>
+      </c>
+      <c r="K168">
+        <v>255</v>
+      </c>
+      <c r="L168">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>51000</v>
+      </c>
+      <c r="B169">
+        <v>255</v>
+      </c>
+      <c r="C169">
+        <v>255</v>
+      </c>
+      <c r="D169">
+        <v>255</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>255</v>
+      </c>
+      <c r="I169">
+        <v>255</v>
+      </c>
+      <c r="J169">
+        <v>255</v>
+      </c>
+      <c r="K169">
+        <v>255</v>
+      </c>
+      <c r="L169">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>51000</v>
+      </c>
+      <c r="B170">
+        <v>255</v>
+      </c>
+      <c r="C170">
+        <v>255</v>
+      </c>
+      <c r="D170">
+        <v>255</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>255</v>
+      </c>
+      <c r="I170">
+        <v>255</v>
+      </c>
+      <c r="J170">
+        <v>255</v>
+      </c>
+      <c r="K170">
+        <v>255</v>
+      </c>
+      <c r="L170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>51000</v>
+      </c>
+      <c r="B171">
+        <v>255</v>
+      </c>
+      <c r="C171">
+        <v>255</v>
+      </c>
+      <c r="D171">
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>255</v>
+      </c>
+      <c r="I171">
+        <v>255</v>
+      </c>
+      <c r="J171">
+        <v>255</v>
+      </c>
+      <c r="K171">
+        <v>255</v>
+      </c>
+      <c r="L171">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>51000</v>
+      </c>
+      <c r="B172">
+        <v>255</v>
+      </c>
+      <c r="C172">
+        <v>255</v>
+      </c>
+      <c r="D172">
+        <v>255</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>255</v>
+      </c>
+      <c r="I172">
+        <v>255</v>
+      </c>
+      <c r="J172">
+        <v>255</v>
+      </c>
+      <c r="K172">
+        <v>255</v>
+      </c>
+      <c r="L172">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>51000</v>
+      </c>
+      <c r="B173">
+        <v>255</v>
+      </c>
+      <c r="C173">
+        <v>255</v>
+      </c>
+      <c r="D173">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>255</v>
+      </c>
+      <c r="I173">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>255</v>
+      </c>
+      <c r="K173">
+        <v>255</v>
+      </c>
+      <c r="L173">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>51000</v>
+      </c>
+      <c r="B174">
+        <v>255</v>
+      </c>
+      <c r="C174">
+        <v>255</v>
+      </c>
+      <c r="D174">
+        <v>255</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>255</v>
+      </c>
+      <c r="I174">
+        <v>255</v>
+      </c>
+      <c r="J174">
+        <v>255</v>
+      </c>
+      <c r="K174">
+        <v>255</v>
+      </c>
+      <c r="L174">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>51000</v>
+      </c>
+      <c r="B175">
+        <v>255</v>
+      </c>
+      <c r="C175">
+        <v>255</v>
+      </c>
+      <c r="D175">
+        <v>255</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>255</v>
+      </c>
+      <c r="I175">
+        <v>255</v>
+      </c>
+      <c r="J175">
+        <v>255</v>
+      </c>
+      <c r="K175">
+        <v>255</v>
+      </c>
+      <c r="L175">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>51000</v>
+      </c>
+      <c r="B176">
+        <v>255</v>
+      </c>
+      <c r="C176">
+        <v>255</v>
+      </c>
+      <c r="D176">
+        <v>255</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>255</v>
+      </c>
+      <c r="I176">
+        <v>255</v>
+      </c>
+      <c r="J176">
+        <v>255</v>
+      </c>
+      <c r="K176">
+        <v>255</v>
+      </c>
+      <c r="L176">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>51000</v>
+      </c>
+      <c r="B177">
+        <v>255</v>
+      </c>
+      <c r="C177">
+        <v>255</v>
+      </c>
+      <c r="D177">
+        <v>255</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>255</v>
+      </c>
+      <c r="I177">
+        <v>255</v>
+      </c>
+      <c r="J177">
+        <v>255</v>
+      </c>
+      <c r="K177">
+        <v>255</v>
+      </c>
+      <c r="L177">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>51000</v>
+      </c>
+      <c r="B178">
+        <v>255</v>
+      </c>
+      <c r="C178">
+        <v>255</v>
+      </c>
+      <c r="D178">
+        <v>255</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>255</v>
+      </c>
+      <c r="I178">
+        <v>255</v>
+      </c>
+      <c r="J178">
+        <v>255</v>
+      </c>
+      <c r="K178">
+        <v>255</v>
+      </c>
+      <c r="L178">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>51000</v>
+      </c>
+      <c r="B179">
+        <v>255</v>
+      </c>
+      <c r="C179">
+        <v>255</v>
+      </c>
+      <c r="D179">
+        <v>255</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>255</v>
+      </c>
+      <c r="I179">
+        <v>255</v>
+      </c>
+      <c r="J179">
+        <v>255</v>
+      </c>
+      <c r="K179">
+        <v>255</v>
+      </c>
+      <c r="L179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>51000</v>
+      </c>
+      <c r="B180">
+        <v>255</v>
+      </c>
+      <c r="C180">
+        <v>255</v>
+      </c>
+      <c r="D180">
+        <v>255</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>255</v>
+      </c>
+      <c r="I180">
+        <v>255</v>
+      </c>
+      <c r="J180">
+        <v>255</v>
+      </c>
+      <c r="K180">
+        <v>255</v>
+      </c>
+      <c r="L180">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>51000</v>
+      </c>
+      <c r="B181">
+        <v>255</v>
+      </c>
+      <c r="C181">
+        <v>255</v>
+      </c>
+      <c r="D181">
+        <v>255</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>255</v>
+      </c>
+      <c r="I181">
+        <v>255</v>
+      </c>
+      <c r="J181">
+        <v>255</v>
+      </c>
+      <c r="K181">
+        <v>255</v>
+      </c>
+      <c r="L181">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>51000</v>
+      </c>
+      <c r="B182">
+        <v>255</v>
+      </c>
+      <c r="C182">
+        <v>255</v>
+      </c>
+      <c r="D182">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>255</v>
+      </c>
+      <c r="I182">
+        <v>255</v>
+      </c>
+      <c r="J182">
+        <v>255</v>
+      </c>
+      <c r="K182">
+        <v>255</v>
+      </c>
+      <c r="L182">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>51000</v>
+      </c>
+      <c r="B183">
+        <v>255</v>
+      </c>
+      <c r="C183">
+        <v>255</v>
+      </c>
+      <c r="D183">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>255</v>
+      </c>
+      <c r="I183">
+        <v>255</v>
+      </c>
+      <c r="J183">
+        <v>255</v>
+      </c>
+      <c r="K183">
+        <v>255</v>
+      </c>
+      <c r="L183">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>51000</v>
+      </c>
+      <c r="B184">
+        <v>255</v>
+      </c>
+      <c r="C184">
+        <v>255</v>
+      </c>
+      <c r="D184">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>255</v>
+      </c>
+      <c r="I184">
+        <v>255</v>
+      </c>
+      <c r="J184">
+        <v>255</v>
+      </c>
+      <c r="K184">
+        <v>255</v>
+      </c>
+      <c r="L184">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>51000</v>
+      </c>
+      <c r="B185">
+        <v>255</v>
+      </c>
+      <c r="C185">
+        <v>255</v>
+      </c>
+      <c r="D185">
+        <v>255</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>255</v>
+      </c>
+      <c r="I185">
+        <v>255</v>
+      </c>
+      <c r="J185">
+        <v>255</v>
+      </c>
+      <c r="K185">
+        <v>255</v>
+      </c>
+      <c r="L185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>51000</v>
+      </c>
+      <c r="B186">
+        <v>255</v>
+      </c>
+      <c r="C186">
+        <v>255</v>
+      </c>
+      <c r="D186">
+        <v>255</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>255</v>
+      </c>
+      <c r="I186">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>255</v>
+      </c>
+      <c r="K186">
+        <v>255</v>
+      </c>
+      <c r="L186">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>51000</v>
+      </c>
+      <c r="B187">
+        <v>255</v>
+      </c>
+      <c r="C187">
+        <v>255</v>
+      </c>
+      <c r="D187">
+        <v>255</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>255</v>
+      </c>
+      <c r="I187">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>255</v>
+      </c>
+      <c r="K187">
+        <v>255</v>
+      </c>
+      <c r="L187">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>51000</v>
+      </c>
+      <c r="B188">
+        <v>255</v>
+      </c>
+      <c r="C188">
+        <v>255</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>255</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>255</v>
+      </c>
+      <c r="K188">
+        <v>255</v>
+      </c>
+      <c r="L188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>51000</v>
+      </c>
+      <c r="B189">
+        <v>255</v>
+      </c>
+      <c r="C189">
+        <v>255</v>
+      </c>
+      <c r="D189">
+        <v>255</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>255</v>
+      </c>
+      <c r="I189">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>255</v>
+      </c>
+      <c r="K189">
+        <v>255</v>
+      </c>
+      <c r="L189">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>51000</v>
+      </c>
+      <c r="B190">
+        <v>255</v>
+      </c>
+      <c r="C190">
+        <v>255</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>255</v>
+      </c>
+      <c r="I190">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>255</v>
+      </c>
+      <c r="K190">
+        <v>255</v>
+      </c>
+      <c r="L190">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>51000</v>
+      </c>
+      <c r="B191">
+        <v>255</v>
+      </c>
+      <c r="C191">
+        <v>255</v>
+      </c>
+      <c r="D191">
+        <v>255</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>255</v>
+      </c>
+      <c r="I191">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>255</v>
+      </c>
+      <c r="K191">
+        <v>255</v>
+      </c>
+      <c r="L191">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>51000</v>
+      </c>
+      <c r="B192">
+        <v>255</v>
+      </c>
+      <c r="C192">
+        <v>255</v>
+      </c>
+      <c r="D192">
+        <v>255</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>255</v>
+      </c>
+      <c r="I192">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>255</v>
+      </c>
+      <c r="K192">
+        <v>255</v>
+      </c>
+      <c r="L192">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>51000</v>
+      </c>
+      <c r="B193">
+        <v>255</v>
+      </c>
+      <c r="C193">
+        <v>255</v>
+      </c>
+      <c r="D193">
+        <v>255</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>255</v>
+      </c>
+      <c r="I193">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>255</v>
+      </c>
+      <c r="K193">
+        <v>255</v>
+      </c>
+      <c r="L193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>51000</v>
+      </c>
+      <c r="B194">
+        <v>255</v>
+      </c>
+      <c r="C194">
+        <v>255</v>
+      </c>
+      <c r="D194">
+        <v>255</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>255</v>
+      </c>
+      <c r="I194">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>255</v>
+      </c>
+      <c r="K194">
+        <v>255</v>
+      </c>
+      <c r="L194">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>51000</v>
+      </c>
+      <c r="B195">
+        <v>255</v>
+      </c>
+      <c r="C195">
+        <v>255</v>
+      </c>
+      <c r="D195">
+        <v>255</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>255</v>
+      </c>
+      <c r="I195">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>255</v>
+      </c>
+      <c r="K195">
+        <v>255</v>
+      </c>
+      <c r="L195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>51000</v>
+      </c>
+      <c r="B196">
+        <v>255</v>
+      </c>
+      <c r="C196">
+        <v>255</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>255</v>
+      </c>
+      <c r="I196">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>255</v>
+      </c>
+      <c r="K196">
+        <v>255</v>
+      </c>
+      <c r="L196">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>51000</v>
+      </c>
+      <c r="B197">
+        <v>255</v>
+      </c>
+      <c r="C197">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>255</v>
+      </c>
+      <c r="I197">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>255</v>
+      </c>
+      <c r="K197">
+        <v>255</v>
+      </c>
+      <c r="L197">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>51000</v>
+      </c>
+      <c r="B198">
+        <v>255</v>
+      </c>
+      <c r="C198">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>255</v>
+      </c>
+      <c r="I198">
+        <v>255</v>
+      </c>
+      <c r="J198">
+        <v>255</v>
+      </c>
+      <c r="K198">
+        <v>255</v>
+      </c>
+      <c r="L198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>51000</v>
+      </c>
+      <c r="B199">
+        <v>255</v>
+      </c>
+      <c r="C199">
+        <v>255</v>
+      </c>
+      <c r="D199">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>255</v>
+      </c>
+      <c r="I199">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>255</v>
+      </c>
+      <c r="K199">
+        <v>255</v>
+      </c>
+      <c r="L199">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>51000</v>
+      </c>
+      <c r="B200">
+        <v>255</v>
+      </c>
+      <c r="C200">
+        <v>255</v>
+      </c>
+      <c r="D200">
+        <v>255</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>255</v>
+      </c>
+      <c r="I200">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>255</v>
+      </c>
+      <c r="K200">
+        <v>255</v>
+      </c>
+      <c r="L200">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>51000</v>
+      </c>
+      <c r="B201">
+        <v>255</v>
+      </c>
+      <c r="C201">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>255</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>255</v>
+      </c>
+      <c r="I201">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>255</v>
+      </c>
+      <c r="K201">
+        <v>255</v>
+      </c>
+      <c r="L201">
         <v>255</v>
       </c>
     </row>
